--- a/Drop_Columns.xlsx
+++ b/Drop_Columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benediktkorbach/Documents/GitHub/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B521642B-2697-304C-96C6-5C9B482AFA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF210C8-2689-8B48-A3F9-D2F03EF932D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="880">
   <si>
     <t>col_index</t>
   </si>
@@ -2677,21 +2676,6 @@
   </si>
   <si>
     <t>Index</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Count of keep_columns</t>
   </si>
 </sst>
 </file>
@@ -2859,7 +2843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2873,11 +2857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2908,10 +2887,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Drop_Columns.xlsx]Sheet1!PivotTable2</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:overlay val="0"/>
@@ -3068,15 +3043,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3089,33 +3056,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$G$3:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>FALSE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TRUE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>FALSE</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>TRUE</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$3:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>325</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>547</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>325</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3323,22 +3284,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:extLst/>
 </c:chartSpace>
 </file>
 
@@ -3956,912 +3902,6 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Benedikt Korbach" refreshedDate="44862.437487731484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="872" xr:uid="{DB39773A-5F2D-374A-AB90-AB25709EA012}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E873" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Index" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="871"/>
-    </cacheField>
-    <cacheField name="col_index" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="871" count="872">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-        <n v="28"/>
-        <n v="29"/>
-        <n v="30"/>
-        <n v="31"/>
-        <n v="32"/>
-        <n v="33"/>
-        <n v="34"/>
-        <n v="35"/>
-        <n v="36"/>
-        <n v="37"/>
-        <n v="38"/>
-        <n v="39"/>
-        <n v="40"/>
-        <n v="41"/>
-        <n v="42"/>
-        <n v="43"/>
-        <n v="44"/>
-        <n v="45"/>
-        <n v="46"/>
-        <n v="47"/>
-        <n v="48"/>
-        <n v="49"/>
-        <n v="50"/>
-        <n v="51"/>
-        <n v="52"/>
-        <n v="53"/>
-        <n v="54"/>
-        <n v="55"/>
-        <n v="56"/>
-        <n v="57"/>
-        <n v="58"/>
-        <n v="59"/>
-        <n v="60"/>
-        <n v="61"/>
-        <n v="62"/>
-        <n v="63"/>
-        <n v="64"/>
-        <n v="65"/>
-        <n v="66"/>
-        <n v="67"/>
-        <n v="68"/>
-        <n v="69"/>
-        <n v="70"/>
-        <n v="71"/>
-        <n v="72"/>
-        <n v="73"/>
-        <n v="74"/>
-        <n v="75"/>
-        <n v="76"/>
-        <n v="77"/>
-        <n v="78"/>
-        <n v="79"/>
-        <n v="80"/>
-        <n v="81"/>
-        <n v="82"/>
-        <n v="83"/>
-        <n v="84"/>
-        <n v="85"/>
-        <n v="86"/>
-        <n v="87"/>
-        <n v="88"/>
-        <n v="89"/>
-        <n v="90"/>
-        <n v="91"/>
-        <n v="92"/>
-        <n v="93"/>
-        <n v="94"/>
-        <n v="95"/>
-        <n v="96"/>
-        <n v="97"/>
-        <n v="98"/>
-        <n v="99"/>
-        <n v="100"/>
-        <n v="101"/>
-        <n v="102"/>
-        <n v="103"/>
-        <n v="104"/>
-        <n v="105"/>
-        <n v="106"/>
-        <n v="107"/>
-        <n v="108"/>
-        <n v="109"/>
-        <n v="110"/>
-        <n v="111"/>
-        <n v="112"/>
-        <n v="113"/>
-        <n v="114"/>
-        <n v="115"/>
-        <n v="116"/>
-        <n v="117"/>
-        <n v="118"/>
-        <n v="119"/>
-        <n v="120"/>
-        <n v="121"/>
-        <n v="122"/>
-        <n v="123"/>
-        <n v="124"/>
-        <n v="125"/>
-        <n v="126"/>
-        <n v="127"/>
-        <n v="128"/>
-        <n v="129"/>
-        <n v="130"/>
-        <n v="131"/>
-        <n v="132"/>
-        <n v="133"/>
-        <n v="134"/>
-        <n v="135"/>
-        <n v="136"/>
-        <n v="137"/>
-        <n v="138"/>
-        <n v="139"/>
-        <n v="140"/>
-        <n v="141"/>
-        <n v="142"/>
-        <n v="143"/>
-        <n v="144"/>
-        <n v="145"/>
-        <n v="146"/>
-        <n v="147"/>
-        <n v="148"/>
-        <n v="149"/>
-        <n v="150"/>
-        <n v="151"/>
-        <n v="152"/>
-        <n v="153"/>
-        <n v="154"/>
-        <n v="155"/>
-        <n v="156"/>
-        <n v="157"/>
-        <n v="158"/>
-        <n v="159"/>
-        <n v="160"/>
-        <n v="161"/>
-        <n v="162"/>
-        <n v="163"/>
-        <n v="164"/>
-        <n v="165"/>
-        <n v="166"/>
-        <n v="167"/>
-        <n v="168"/>
-        <n v="169"/>
-        <n v="170"/>
-        <n v="171"/>
-        <n v="172"/>
-        <n v="173"/>
-        <n v="174"/>
-        <n v="175"/>
-        <n v="176"/>
-        <n v="177"/>
-        <n v="178"/>
-        <n v="179"/>
-        <n v="180"/>
-        <n v="181"/>
-        <n v="182"/>
-        <n v="183"/>
-        <n v="184"/>
-        <n v="185"/>
-        <n v="186"/>
-        <n v="187"/>
-        <n v="188"/>
-        <n v="189"/>
-        <n v="190"/>
-        <n v="191"/>
-        <n v="192"/>
-        <n v="193"/>
-        <n v="194"/>
-        <n v="195"/>
-        <n v="196"/>
-        <n v="197"/>
-        <n v="198"/>
-        <n v="199"/>
-        <n v="200"/>
-        <n v="201"/>
-        <n v="202"/>
-        <n v="203"/>
-        <n v="204"/>
-        <n v="205"/>
-        <n v="206"/>
-        <n v="207"/>
-        <n v="208"/>
-        <n v="209"/>
-        <n v="210"/>
-        <n v="211"/>
-        <n v="212"/>
-        <n v="213"/>
-        <n v="214"/>
-        <n v="215"/>
-        <n v="216"/>
-        <n v="217"/>
-        <n v="218"/>
-        <n v="219"/>
-        <n v="220"/>
-        <n v="221"/>
-        <n v="222"/>
-        <n v="223"/>
-        <n v="224"/>
-        <n v="225"/>
-        <n v="226"/>
-        <n v="227"/>
-        <n v="228"/>
-        <n v="229"/>
-        <n v="230"/>
-        <n v="231"/>
-        <n v="232"/>
-        <n v="233"/>
-        <n v="234"/>
-        <n v="235"/>
-        <n v="236"/>
-        <n v="237"/>
-        <n v="238"/>
-        <n v="239"/>
-        <n v="240"/>
-        <n v="241"/>
-        <n v="242"/>
-        <n v="243"/>
-        <n v="244"/>
-        <n v="245"/>
-        <n v="246"/>
-        <n v="247"/>
-        <n v="248"/>
-        <n v="249"/>
-        <n v="250"/>
-        <n v="251"/>
-        <n v="252"/>
-        <n v="253"/>
-        <n v="254"/>
-        <n v="255"/>
-        <n v="256"/>
-        <n v="257"/>
-        <n v="258"/>
-        <n v="259"/>
-        <n v="260"/>
-        <n v="261"/>
-        <n v="262"/>
-        <n v="263"/>
-        <n v="264"/>
-        <n v="265"/>
-        <n v="266"/>
-        <n v="267"/>
-        <n v="268"/>
-        <n v="269"/>
-        <n v="270"/>
-        <n v="271"/>
-        <n v="272"/>
-        <n v="273"/>
-        <n v="274"/>
-        <n v="275"/>
-        <n v="276"/>
-        <n v="277"/>
-        <n v="278"/>
-        <n v="279"/>
-        <n v="280"/>
-        <n v="281"/>
-        <n v="282"/>
-        <n v="283"/>
-        <n v="284"/>
-        <n v="285"/>
-        <n v="286"/>
-        <n v="287"/>
-        <n v="288"/>
-        <n v="289"/>
-        <n v="290"/>
-        <n v="291"/>
-        <n v="292"/>
-        <n v="293"/>
-        <n v="294"/>
-        <n v="295"/>
-        <n v="296"/>
-        <n v="297"/>
-        <n v="298"/>
-        <n v="299"/>
-        <n v="300"/>
-        <n v="301"/>
-        <n v="302"/>
-        <n v="303"/>
-        <n v="304"/>
-        <n v="305"/>
-        <n v="306"/>
-        <n v="307"/>
-        <n v="308"/>
-        <n v="309"/>
-        <n v="310"/>
-        <n v="311"/>
-        <n v="312"/>
-        <n v="313"/>
-        <n v="314"/>
-        <n v="315"/>
-        <n v="316"/>
-        <n v="317"/>
-        <n v="318"/>
-        <n v="319"/>
-        <n v="320"/>
-        <n v="321"/>
-        <n v="322"/>
-        <n v="323"/>
-        <n v="324"/>
-        <n v="325"/>
-        <n v="326"/>
-        <n v="327"/>
-        <n v="328"/>
-        <n v="329"/>
-        <n v="330"/>
-        <n v="331"/>
-        <n v="332"/>
-        <n v="333"/>
-        <n v="334"/>
-        <n v="335"/>
-        <n v="336"/>
-        <n v="337"/>
-        <n v="338"/>
-        <n v="339"/>
-        <n v="340"/>
-        <n v="341"/>
-        <n v="342"/>
-        <n v="343"/>
-        <n v="344"/>
-        <n v="345"/>
-        <n v="346"/>
-        <n v="347"/>
-        <n v="348"/>
-        <n v="349"/>
-        <n v="350"/>
-        <n v="351"/>
-        <n v="352"/>
-        <n v="353"/>
-        <n v="354"/>
-        <n v="355"/>
-        <n v="356"/>
-        <n v="357"/>
-        <n v="358"/>
-        <n v="359"/>
-        <n v="360"/>
-        <n v="361"/>
-        <n v="362"/>
-        <n v="363"/>
-        <n v="364"/>
-        <n v="365"/>
-        <n v="366"/>
-        <n v="367"/>
-        <n v="368"/>
-        <n v="369"/>
-        <n v="370"/>
-        <n v="371"/>
-        <n v="372"/>
-        <n v="373"/>
-        <n v="374"/>
-        <n v="375"/>
-        <n v="376"/>
-        <n v="377"/>
-        <n v="378"/>
-        <n v="379"/>
-        <n v="380"/>
-        <n v="381"/>
-        <n v="382"/>
-        <n v="383"/>
-        <n v="384"/>
-        <n v="385"/>
-        <n v="386"/>
-        <n v="387"/>
-        <n v="388"/>
-        <n v="389"/>
-        <n v="390"/>
-        <n v="391"/>
-        <n v="392"/>
-        <n v="393"/>
-        <n v="394"/>
-        <n v="395"/>
-        <n v="396"/>
-        <n v="397"/>
-        <n v="398"/>
-        <n v="399"/>
-        <n v="400"/>
-        <n v="401"/>
-        <n v="402"/>
-        <n v="403"/>
-        <n v="404"/>
-        <n v="405"/>
-        <n v="406"/>
-        <n v="407"/>
-        <n v="408"/>
-        <n v="409"/>
-        <n v="410"/>
-        <n v="411"/>
-        <n v="412"/>
-        <n v="413"/>
-        <n v="414"/>
-        <n v="415"/>
-        <n v="416"/>
-        <n v="417"/>
-        <n v="418"/>
-        <n v="419"/>
-        <n v="420"/>
-        <n v="421"/>
-        <n v="422"/>
-        <n v="423"/>
-        <n v="424"/>
-        <n v="425"/>
-        <n v="426"/>
-        <n v="427"/>
-        <n v="428"/>
-        <n v="429"/>
-        <n v="430"/>
-        <n v="431"/>
-        <n v="432"/>
-        <n v="433"/>
-        <n v="434"/>
-        <n v="435"/>
-        <n v="436"/>
-        <n v="437"/>
-        <n v="438"/>
-        <n v="439"/>
-        <n v="440"/>
-        <n v="441"/>
-        <n v="442"/>
-        <n v="443"/>
-        <n v="444"/>
-        <n v="445"/>
-        <n v="446"/>
-        <n v="447"/>
-        <n v="448"/>
-        <n v="449"/>
-        <n v="450"/>
-        <n v="451"/>
-        <n v="452"/>
-        <n v="453"/>
-        <n v="454"/>
-        <n v="455"/>
-        <n v="456"/>
-        <n v="457"/>
-        <n v="458"/>
-        <n v="459"/>
-        <n v="460"/>
-        <n v="461"/>
-        <n v="462"/>
-        <n v="463"/>
-        <n v="464"/>
-        <n v="465"/>
-        <n v="466"/>
-        <n v="467"/>
-        <n v="468"/>
-        <n v="469"/>
-        <n v="470"/>
-        <n v="471"/>
-        <n v="472"/>
-        <n v="473"/>
-        <n v="474"/>
-        <n v="475"/>
-        <n v="476"/>
-        <n v="477"/>
-        <n v="478"/>
-        <n v="479"/>
-        <n v="480"/>
-        <n v="481"/>
-        <n v="482"/>
-        <n v="483"/>
-        <n v="484"/>
-        <n v="485"/>
-        <n v="486"/>
-        <n v="487"/>
-        <n v="488"/>
-        <n v="489"/>
-        <n v="490"/>
-        <n v="491"/>
-        <n v="492"/>
-        <n v="493"/>
-        <n v="494"/>
-        <n v="495"/>
-        <n v="496"/>
-        <n v="497"/>
-        <n v="498"/>
-        <n v="499"/>
-        <n v="500"/>
-        <n v="501"/>
-        <n v="502"/>
-        <n v="503"/>
-        <n v="504"/>
-        <n v="505"/>
-        <n v="506"/>
-        <n v="507"/>
-        <n v="508"/>
-        <n v="509"/>
-        <n v="510"/>
-        <n v="511"/>
-        <n v="512"/>
-        <n v="513"/>
-        <n v="514"/>
-        <n v="515"/>
-        <n v="516"/>
-        <n v="517"/>
-        <n v="518"/>
-        <n v="519"/>
-        <n v="520"/>
-        <n v="521"/>
-        <n v="522"/>
-        <n v="523"/>
-        <n v="524"/>
-        <n v="525"/>
-        <n v="526"/>
-        <n v="527"/>
-        <n v="528"/>
-        <n v="529"/>
-        <n v="530"/>
-        <n v="531"/>
-        <n v="532"/>
-        <n v="533"/>
-        <n v="534"/>
-        <n v="535"/>
-        <n v="536"/>
-        <n v="537"/>
-        <n v="538"/>
-        <n v="539"/>
-        <n v="540"/>
-        <n v="541"/>
-        <n v="542"/>
-        <n v="543"/>
-        <n v="544"/>
-        <n v="545"/>
-        <n v="546"/>
-        <n v="547"/>
-        <n v="548"/>
-        <n v="549"/>
-        <n v="550"/>
-        <n v="551"/>
-        <n v="552"/>
-        <n v="553"/>
-        <n v="554"/>
-        <n v="555"/>
-        <n v="556"/>
-        <n v="557"/>
-        <n v="558"/>
-        <n v="559"/>
-        <n v="560"/>
-        <n v="561"/>
-        <n v="562"/>
-        <n v="563"/>
-        <n v="564"/>
-        <n v="565"/>
-        <n v="566"/>
-        <n v="567"/>
-        <n v="568"/>
-        <n v="569"/>
-        <n v="570"/>
-        <n v="571"/>
-        <n v="572"/>
-        <n v="573"/>
-        <n v="574"/>
-        <n v="575"/>
-        <n v="576"/>
-        <n v="577"/>
-        <n v="578"/>
-        <n v="579"/>
-        <n v="580"/>
-        <n v="581"/>
-        <n v="582"/>
-        <n v="583"/>
-        <n v="584"/>
-        <n v="585"/>
-        <n v="586"/>
-        <n v="587"/>
-        <n v="588"/>
-        <n v="589"/>
-        <n v="590"/>
-        <n v="591"/>
-        <n v="592"/>
-        <n v="593"/>
-        <n v="594"/>
-        <n v="595"/>
-        <n v="596"/>
-        <n v="597"/>
-        <n v="598"/>
-        <n v="599"/>
-        <n v="600"/>
-        <n v="601"/>
-        <n v="602"/>
-        <n v="603"/>
-        <n v="604"/>
-        <n v="605"/>
-        <n v="606"/>
-        <n v="607"/>
-        <n v="608"/>
-        <n v="609"/>
-        <n v="610"/>
-        <n v="611"/>
-        <n v="612"/>
-        <n v="613"/>
-        <n v="614"/>
-        <n v="615"/>
-        <n v="616"/>
-        <n v="617"/>
-        <n v="618"/>
-        <n v="619"/>
-        <n v="620"/>
-        <n v="621"/>
-        <n v="622"/>
-        <n v="623"/>
-        <n v="624"/>
-        <n v="625"/>
-        <n v="626"/>
-        <n v="627"/>
-        <n v="628"/>
-        <n v="629"/>
-        <n v="630"/>
-        <n v="631"/>
-        <n v="632"/>
-        <n v="633"/>
-        <n v="634"/>
-        <n v="635"/>
-        <n v="636"/>
-        <n v="637"/>
-        <n v="638"/>
-        <n v="639"/>
-        <n v="640"/>
-        <n v="641"/>
-        <n v="642"/>
-        <n v="643"/>
-        <n v="644"/>
-        <n v="645"/>
-        <n v="646"/>
-        <n v="647"/>
-        <n v="648"/>
-        <n v="649"/>
-        <n v="650"/>
-        <n v="651"/>
-        <n v="652"/>
-        <n v="653"/>
-        <n v="654"/>
-        <n v="655"/>
-        <n v="656"/>
-        <n v="657"/>
-        <n v="658"/>
-        <n v="659"/>
-        <n v="660"/>
-        <n v="661"/>
-        <n v="662"/>
-        <n v="663"/>
-        <n v="664"/>
-        <n v="665"/>
-        <n v="666"/>
-        <n v="667"/>
-        <n v="668"/>
-        <n v="669"/>
-        <n v="670"/>
-        <n v="671"/>
-        <n v="672"/>
-        <n v="673"/>
-        <n v="674"/>
-        <n v="675"/>
-        <n v="676"/>
-        <n v="677"/>
-        <n v="678"/>
-        <n v="679"/>
-        <n v="680"/>
-        <n v="681"/>
-        <n v="682"/>
-        <n v="683"/>
-        <n v="684"/>
-        <n v="685"/>
-        <n v="686"/>
-        <n v="687"/>
-        <n v="688"/>
-        <n v="689"/>
-        <n v="690"/>
-        <n v="691"/>
-        <n v="692"/>
-        <n v="693"/>
-        <n v="694"/>
-        <n v="695"/>
-        <n v="696"/>
-        <n v="697"/>
-        <n v="698"/>
-        <n v="699"/>
-        <n v="700"/>
-        <n v="701"/>
-        <n v="702"/>
-        <n v="703"/>
-        <n v="704"/>
-        <n v="705"/>
-        <n v="706"/>
-        <n v="707"/>
-        <n v="708"/>
-        <n v="709"/>
-        <n v="710"/>
-        <n v="711"/>
-        <n v="712"/>
-        <n v="713"/>
-        <n v="714"/>
-        <n v="715"/>
-        <n v="716"/>
-        <n v="717"/>
-        <n v="718"/>
-        <n v="719"/>
-        <n v="720"/>
-        <n v="721"/>
-        <n v="722"/>
-        <n v="723"/>
-        <n v="724"/>
-        <n v="725"/>
-        <n v="726"/>
-        <n v="727"/>
-        <n v="728"/>
-        <n v="729"/>
-        <n v="730"/>
-        <n v="731"/>
-        <n v="732"/>
-        <n v="733"/>
-        <n v="734"/>
-        <n v="735"/>
-        <n v="736"/>
-        <n v="737"/>
-        <n v="738"/>
-        <n v="739"/>
-        <n v="740"/>
-        <n v="741"/>
-        <n v="742"/>
-        <n v="743"/>
-        <n v="744"/>
-        <n v="745"/>
-        <n v="746"/>
-        <n v="747"/>
-        <n v="748"/>
-        <n v="749"/>
-        <n v="750"/>
-        <n v="751"/>
-        <n v="752"/>
-        <n v="753"/>
-        <n v="754"/>
-        <n v="755"/>
-        <n v="756"/>
-        <n v="757"/>
-        <n v="758"/>
-        <n v="759"/>
-        <n v="760"/>
-        <n v="761"/>
-        <n v="762"/>
-        <n v="763"/>
-        <n v="764"/>
-        <n v="765"/>
-        <n v="766"/>
-        <n v="767"/>
-        <n v="768"/>
-        <n v="769"/>
-        <n v="770"/>
-        <n v="771"/>
-        <n v="772"/>
-        <n v="773"/>
-        <n v="774"/>
-        <n v="775"/>
-        <n v="776"/>
-        <n v="777"/>
-        <n v="778"/>
-        <n v="779"/>
-        <n v="780"/>
-        <n v="781"/>
-        <n v="782"/>
-        <n v="783"/>
-        <n v="784"/>
-        <n v="785"/>
-        <n v="786"/>
-        <n v="787"/>
-        <n v="788"/>
-        <n v="789"/>
-        <n v="790"/>
-        <n v="791"/>
-        <n v="792"/>
-        <n v="793"/>
-        <n v="794"/>
-        <n v="795"/>
-        <n v="796"/>
-        <n v="797"/>
-        <n v="798"/>
-        <n v="799"/>
-        <n v="800"/>
-        <n v="801"/>
-        <n v="802"/>
-        <n v="803"/>
-        <n v="804"/>
-        <n v="805"/>
-        <n v="806"/>
-        <n v="807"/>
-        <n v="808"/>
-        <n v="809"/>
-        <n v="810"/>
-        <n v="811"/>
-        <n v="812"/>
-        <n v="813"/>
-        <n v="814"/>
-        <n v="815"/>
-        <n v="816"/>
-        <n v="817"/>
-        <n v="818"/>
-        <n v="819"/>
-        <n v="820"/>
-        <n v="821"/>
-        <n v="822"/>
-        <n v="823"/>
-        <n v="824"/>
-        <n v="825"/>
-        <n v="826"/>
-        <n v="827"/>
-        <n v="828"/>
-        <n v="829"/>
-        <n v="830"/>
-        <n v="831"/>
-        <n v="832"/>
-        <n v="833"/>
-        <n v="834"/>
-        <n v="835"/>
-        <n v="836"/>
-        <n v="837"/>
-        <n v="838"/>
-        <n v="839"/>
-        <n v="840"/>
-        <n v="841"/>
-        <n v="842"/>
-        <n v="843"/>
-        <n v="844"/>
-        <n v="845"/>
-        <n v="846"/>
-        <n v="847"/>
-        <n v="848"/>
-        <n v="849"/>
-        <n v="850"/>
-        <n v="851"/>
-        <n v="852"/>
-        <n v="853"/>
-        <n v="854"/>
-        <n v="855"/>
-        <n v="856"/>
-        <n v="857"/>
-        <n v="858"/>
-        <n v="859"/>
-        <n v="860"/>
-        <n v="861"/>
-        <n v="862"/>
-        <n v="863"/>
-        <n v="864"/>
-        <n v="865"/>
-        <n v="866"/>
-        <n v="867"/>
-        <n v="868"/>
-        <n v="869"/>
-        <n v="870"/>
-        <n v="871"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="col_names" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="keep_columns" numFmtId="0">
-      <sharedItems count="2">
-        <b v="1"/>
-        <b v="0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="encoding" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="871">
   <r>
@@ -10959,7057 +9999,13 @@
     <n v="871"/>
     <s v="wexmen2"/>
     <b v="0"/>
-    <s v="no"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="872">
-  <r>
-    <n v="0"/>
-    <x v="0"/>
-    <s v="studyno1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="studyno2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="2"/>
-    <s v="doi"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="3"/>
-    <s v="version"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="4"/>
-    <s v="edition"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="5"/>
-    <s v="survey"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="6"/>
-    <s v="caseid"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="7"/>
-    <s v="uniqid"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="8"/>
-    <s v="serialid"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="9"/>
-    <s v="tnscntry"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="10"/>
-    <s v="country"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="11"/>
-    <s v="isocntry"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="12"/>
-    <s v="split"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="13"/>
-    <s v="q1.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="14"/>
-    <s v="q1.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="15"/>
-    <s v="q1.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <x v="16"/>
-    <s v="q1.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <x v="17"/>
-    <s v="q1.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="18"/>
-    <s v="q1.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="19"/>
-    <s v="q1.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="20"/>
-    <s v="q1.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <x v="21"/>
-    <s v="q1.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="22"/>
-    <s v="q1.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="23"/>
-    <s v="q1.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="24"/>
-    <s v="q1.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="25"/>
-    <s v="q1.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="26"/>
-    <s v="q1.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="27"/>
-    <s v="q1.15"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="28"/>
-    <s v="q1.16"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="29"/>
-    <s v="q1.17"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="30"/>
-    <s v="q1.18"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <x v="31"/>
-    <s v="q1.19"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <x v="32"/>
-    <s v="q1.20"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="33"/>
-    <s v="q1.21"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <x v="34"/>
-    <s v="q1.22"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="35"/>
-    <s v="q1.23"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <x v="36"/>
-    <s v="q1.24"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="37"/>
-    <s v="q1.25"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="38"/>
-    <s v="q1.26"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <x v="39"/>
-    <s v="q1.27"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <x v="40"/>
-    <s v="q1.28"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <x v="41"/>
-    <s v="q1.29"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <x v="42"/>
-    <s v="q1.30"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <x v="43"/>
-    <s v="q1.31"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <x v="44"/>
-    <s v="q1.32"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <x v="45"/>
-    <s v="q1.33"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <x v="46"/>
-    <s v="q1.34"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <x v="47"/>
-    <s v="q1.35"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <x v="48"/>
-    <s v="q1.36"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <x v="49"/>
-    <s v="d70"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="50"/>
-    <x v="50"/>
-    <s v="d71a_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <x v="51"/>
-    <s v="d71a_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="52"/>
-    <x v="52"/>
-    <s v="d71a_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="53"/>
-    <x v="53"/>
-    <s v="d71b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="54"/>
-    <x v="54"/>
-    <s v="d71b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="55"/>
-    <x v="55"/>
-    <s v="d71b_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="56"/>
-    <x v="56"/>
-    <s v="opls"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="57"/>
-    <x v="57"/>
-    <s v="polintr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="58"/>
-    <x v="58"/>
-    <s v="qa1a_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <x v="59"/>
-    <s v="qa1a_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <x v="60"/>
-    <s v="qa1a_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <x v="61"/>
-    <s v="qa1a_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="62"/>
-    <x v="62"/>
-    <s v="qa1a_5"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="63"/>
-    <x v="63"/>
-    <s v="qa1a_6"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <x v="64"/>
-    <s v="qa1a_7"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="65"/>
-    <x v="65"/>
-    <s v="qa1b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="66"/>
-    <x v="66"/>
-    <s v="qa1b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="67"/>
-    <x v="67"/>
-    <s v="qa1b_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="68"/>
-    <x v="68"/>
-    <s v="qa1b_4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <x v="69"/>
-    <s v="qa1b_5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <x v="70"/>
-    <s v="qa1b_6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <x v="71"/>
-    <s v="qa1b_7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="72"/>
-    <x v="72"/>
-    <s v="qa2a_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="73"/>
-    <x v="73"/>
-    <s v="qa2a_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="74"/>
-    <x v="74"/>
-    <s v="qa2a_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="75"/>
-    <x v="75"/>
-    <s v="qa2a_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="76"/>
-    <x v="76"/>
-    <s v="qa2a_5"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="77"/>
-    <x v="77"/>
-    <s v="qa2a_6"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="78"/>
-    <x v="78"/>
-    <s v="qa2a_7"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="79"/>
-    <x v="79"/>
-    <s v="qa2b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="80"/>
-    <x v="80"/>
-    <s v="qa2b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="81"/>
-    <x v="81"/>
-    <s v="qa2b_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <x v="82"/>
-    <s v="qa2b_4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="83"/>
-    <x v="83"/>
-    <s v="qa2b_5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="84"/>
-    <x v="84"/>
-    <s v="qa2b_6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="85"/>
-    <x v="85"/>
-    <s v="qa2b_7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="86"/>
-    <x v="86"/>
-    <s v="qa3a.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="87"/>
-    <x v="87"/>
-    <s v="qa3a.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="88"/>
-    <x v="88"/>
-    <s v="qa3a.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <x v="89"/>
-    <s v="qa3a.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="90"/>
-    <x v="90"/>
-    <s v="qa3a.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="91"/>
-    <x v="91"/>
-    <s v="qa3a.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="92"/>
-    <x v="92"/>
-    <s v="qa3a.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="93"/>
-    <x v="93"/>
-    <s v="qa3a.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="94"/>
-    <x v="94"/>
-    <s v="qa3a.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="95"/>
-    <x v="95"/>
-    <s v="qa3a.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <x v="96"/>
-    <s v="qa3a.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <x v="97"/>
-    <s v="qa3a.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <x v="98"/>
-    <s v="qa3a.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <x v="99"/>
-    <s v="qa3a.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <x v="100"/>
-    <s v="qa3a.15"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <x v="101"/>
-    <s v="qa3a.16"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <x v="102"/>
-    <s v="qa4a.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <x v="103"/>
-    <s v="qa4a.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <x v="104"/>
-    <s v="qa4a.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <x v="105"/>
-    <s v="qa4a.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <x v="106"/>
-    <s v="qa4a.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <x v="107"/>
-    <s v="qa4a.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <x v="108"/>
-    <s v="qa4a.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <x v="109"/>
-    <s v="qa4a.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <x v="110"/>
-    <s v="qa4a.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <x v="111"/>
-    <s v="qa4a.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <x v="112"/>
-    <s v="qa4a.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <x v="113"/>
-    <s v="qa4a.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <x v="114"/>
-    <s v="qa4a.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <x v="115"/>
-    <s v="qa4a.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <x v="116"/>
-    <s v="qa4a.15"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <x v="117"/>
-    <s v="qa4a.16"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <x v="118"/>
-    <s v="qa4a.17"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <x v="119"/>
-    <s v="qa4a.18"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <x v="120"/>
-    <s v="qa3b.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <x v="121"/>
-    <s v="qa3b.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <x v="122"/>
-    <s v="qa3b.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <x v="123"/>
-    <s v="qa3b.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <x v="124"/>
-    <s v="qa3b.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <x v="125"/>
-    <s v="qa3b.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <x v="126"/>
-    <s v="qa3b.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <x v="127"/>
-    <s v="qa3b.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <x v="128"/>
-    <s v="qa3b.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <x v="129"/>
-    <s v="qa3b.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <x v="130"/>
-    <s v="qa3b.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <x v="131"/>
-    <s v="qa3b.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <x v="132"/>
-    <s v="qa3b.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <x v="133"/>
-    <s v="qa3b.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <x v="134"/>
-    <s v="qa3b.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <x v="135"/>
-    <s v="qa3b.16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <x v="136"/>
-    <s v="qa4b.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <x v="137"/>
-    <s v="qa4b.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="138"/>
-    <x v="138"/>
-    <s v="qa4b.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="139"/>
-    <x v="139"/>
-    <s v="qa4b.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="140"/>
-    <x v="140"/>
-    <s v="qa4b.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <x v="141"/>
-    <s v="qa4b.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <x v="142"/>
-    <s v="qa4b.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <x v="143"/>
-    <s v="qa4b.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <x v="144"/>
-    <s v="qa4b.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <x v="145"/>
-    <s v="qa4b.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <x v="146"/>
-    <s v="qa4b.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <x v="147"/>
-    <s v="qa4b.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <x v="148"/>
-    <s v="qa4b.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <x v="149"/>
-    <s v="qa4b.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <x v="150"/>
-    <s v="qa4b.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <x v="151"/>
-    <s v="qa4b.16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <x v="152"/>
-    <s v="qa4b.17"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <x v="153"/>
-    <s v="qa4b.18"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <x v="154"/>
-    <s v="qa5.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <x v="155"/>
-    <s v="qa5.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <x v="156"/>
-    <s v="qa5.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <x v="157"/>
-    <s v="qa5.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <x v="158"/>
-    <s v="qa5.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <x v="159"/>
-    <s v="qa5.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <x v="160"/>
-    <s v="qa5.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <x v="161"/>
-    <s v="qa5.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="162"/>
-    <x v="162"/>
-    <s v="qa5.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <x v="163"/>
-    <s v="qa5.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="164"/>
-    <x v="164"/>
-    <s v="qa5.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <x v="165"/>
-    <s v="qa5.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <x v="166"/>
-    <s v="qa5.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <x v="167"/>
-    <s v="qa5.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <x v="168"/>
-    <s v="qa5.15"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="169"/>
-    <x v="169"/>
-    <s v="qa5.16"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="170"/>
-    <x v="170"/>
-    <s v="d73a_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <x v="171"/>
-    <s v="d73a_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <x v="172"/>
-    <s v="d73a_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <x v="173"/>
-    <s v="d73b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <x v="174"/>
-    <s v="d73b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <x v="175"/>
-    <s v="d73b_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <x v="176"/>
-    <s v="qa6a_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <x v="177"/>
-    <s v="qa6a_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <x v="178"/>
-    <s v="qa6a_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="179"/>
-    <x v="179"/>
-    <s v="qa6a_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <x v="180"/>
-    <s v="qa6a_5"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <x v="181"/>
-    <s v="qa6a_6"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <x v="182"/>
-    <s v="qa6a_7"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <x v="183"/>
-    <s v="qa6a_8"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <x v="184"/>
-    <s v="qa6a_9"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <x v="185"/>
-    <s v="qa6a_10"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <x v="186"/>
-    <s v="qa6a_11"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="187"/>
-    <x v="187"/>
-    <s v="qa6b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="188"/>
-    <x v="188"/>
-    <s v="qa6b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="189"/>
-    <x v="189"/>
-    <s v="qa6b_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="190"/>
-    <x v="190"/>
-    <s v="qa6b_4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="191"/>
-    <x v="191"/>
-    <s v="qa7"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="192"/>
-    <x v="192"/>
-    <s v="qa8_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <x v="193"/>
-    <s v="qa8_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="194"/>
-    <x v="194"/>
-    <s v="qa8_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="195"/>
-    <x v="195"/>
-    <s v="qa8_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <x v="196"/>
-    <s v="qa8_5"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="197"/>
-    <x v="197"/>
-    <s v="qa8_6"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="198"/>
-    <x v="198"/>
-    <s v="qa8_7"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="199"/>
-    <x v="199"/>
-    <s v="qa8_8"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="200"/>
-    <x v="200"/>
-    <s v="qa8_9"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <x v="201"/>
-    <s v="qa8_10"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="202"/>
-    <x v="202"/>
-    <s v="qa8_11"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="203"/>
-    <x v="203"/>
-    <s v="qa8_12"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="204"/>
-    <x v="204"/>
-    <s v="qa8_13"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="205"/>
-    <x v="205"/>
-    <s v="qa9.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="206"/>
-    <x v="206"/>
-    <s v="qa9.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="207"/>
-    <x v="207"/>
-    <s v="qa9.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="208"/>
-    <x v="208"/>
-    <s v="qa9.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="209"/>
-    <x v="209"/>
-    <s v="qa9.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="210"/>
-    <x v="210"/>
-    <s v="qa9.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="211"/>
-    <x v="211"/>
-    <s v="qa9.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="212"/>
-    <x v="212"/>
-    <s v="qa9.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="213"/>
-    <x v="213"/>
-    <s v="qa9.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="214"/>
-    <x v="214"/>
-    <s v="qa9.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="215"/>
-    <x v="215"/>
-    <s v="qa9.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="216"/>
-    <x v="216"/>
-    <s v="qa9.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="217"/>
-    <x v="217"/>
-    <s v="qa9.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="218"/>
-    <x v="218"/>
-    <s v="qa9.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="219"/>
-    <x v="219"/>
-    <s v="qa9.15"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="220"/>
-    <x v="220"/>
-    <s v="qa9.16"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="221"/>
-    <x v="221"/>
-    <s v="qa10_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="222"/>
-    <x v="222"/>
-    <s v="qa10_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="223"/>
-    <x v="223"/>
-    <s v="qa10_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="224"/>
-    <x v="224"/>
-    <s v="qa10_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="225"/>
-    <x v="225"/>
-    <s v="qa10_5"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="226"/>
-    <x v="226"/>
-    <s v="qa10_6"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="227"/>
-    <x v="227"/>
-    <s v="qf1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="228"/>
-    <x v="228"/>
-    <s v="qf2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="229"/>
-    <x v="229"/>
-    <s v="qf3.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="230"/>
-    <x v="230"/>
-    <s v="qf3.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="231"/>
-    <x v="231"/>
-    <s v="qf3.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="232"/>
-    <x v="232"/>
-    <s v="qf3.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="233"/>
-    <x v="233"/>
-    <s v="qf3.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="234"/>
-    <x v="234"/>
-    <s v="qf3.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="235"/>
-    <x v="235"/>
-    <s v="qf3.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="236"/>
-    <x v="236"/>
-    <s v="qf3.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="237"/>
-    <x v="237"/>
-    <s v="qf3.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="238"/>
-    <x v="238"/>
-    <s v="qf3.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="239"/>
-    <x v="239"/>
-    <s v="qf3.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="240"/>
-    <x v="240"/>
-    <s v="qf3.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="241"/>
-    <x v="241"/>
-    <s v="qf3.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="242"/>
-    <x v="242"/>
-    <s v="qf3.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="243"/>
-    <x v="243"/>
-    <s v="qf3.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="244"/>
-    <x v="244"/>
-    <s v="qa11a"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="245"/>
-    <x v="245"/>
-    <s v="qa12a"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="246"/>
-    <x v="246"/>
-    <s v="qa11b"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="247"/>
-    <x v="247"/>
-    <s v="qa12b"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="248"/>
-    <x v="248"/>
-    <s v="qa13_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="249"/>
-    <x v="249"/>
-    <s v="qa13_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="250"/>
-    <x v="250"/>
-    <s v="qa13_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="251"/>
-    <x v="251"/>
-    <s v="qa13_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="252"/>
-    <x v="252"/>
-    <s v="qa13_5"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="253"/>
-    <x v="253"/>
-    <s v="qa14_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="254"/>
-    <x v="254"/>
-    <s v="qa14_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="255"/>
-    <x v="255"/>
-    <s v="qa14_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="256"/>
-    <x v="256"/>
-    <s v="qa14_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="257"/>
-    <x v="257"/>
-    <s v="qa14_5"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="258"/>
-    <x v="258"/>
-    <s v="qa15_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="259"/>
-    <x v="259"/>
-    <s v="qa15_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="260"/>
-    <x v="260"/>
-    <s v="qa15_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="261"/>
-    <x v="261"/>
-    <s v="qa15t1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="262"/>
-    <x v="262"/>
-    <s v="qa15t2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="263"/>
-    <x v="263"/>
-    <s v="qa15t3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="264"/>
-    <x v="264"/>
-    <s v="qa15t4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="265"/>
-    <x v="265"/>
-    <s v="qa15t5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="266"/>
-    <x v="266"/>
-    <s v="qa15t6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="267"/>
-    <x v="267"/>
-    <s v="qa15t7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="268"/>
-    <x v="268"/>
-    <s v="qa16_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="269"/>
-    <x v="269"/>
-    <s v="qa16_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="270"/>
-    <x v="270"/>
-    <s v="qa16_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="271"/>
-    <x v="271"/>
-    <s v="qa16_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="272"/>
-    <x v="272"/>
-    <s v="qa16_5"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="273"/>
-    <x v="273"/>
-    <s v="qa16_6"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="274"/>
-    <x v="274"/>
-    <s v="qa16_7"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="275"/>
-    <x v="275"/>
-    <s v="qa16_8"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="276"/>
-    <x v="276"/>
-    <s v="qa16_9"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="277"/>
-    <x v="277"/>
-    <s v="qa16r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="278"/>
-    <x v="278"/>
-    <s v="qa17a"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="279"/>
-    <x v="279"/>
-    <s v="qa17b"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="280"/>
-    <x v="280"/>
-    <s v="qa18a_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="281"/>
-    <x v="281"/>
-    <s v="qa18a_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="282"/>
-    <x v="282"/>
-    <s v="qa18a_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="283"/>
-    <x v="283"/>
-    <s v="qa18a_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="284"/>
-    <x v="284"/>
-    <s v="qa18a_5"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="285"/>
-    <x v="285"/>
-    <s v="qa18a_6"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="286"/>
-    <x v="286"/>
-    <s v="qa18b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <x v="287"/>
-    <s v="qa18b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="288"/>
-    <x v="288"/>
-    <s v="qa18b_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="289"/>
-    <x v="289"/>
-    <s v="qa19"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="290"/>
-    <x v="290"/>
-    <s v="qb1_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="291"/>
-    <x v="291"/>
-    <s v="qb2.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="292"/>
-    <x v="292"/>
-    <s v="qb2.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="293"/>
-    <x v="293"/>
-    <s v="qb2.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="294"/>
-    <x v="294"/>
-    <s v="qb2.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="295"/>
-    <x v="295"/>
-    <s v="qb2.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="296"/>
-    <x v="296"/>
-    <s v="qb2.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="297"/>
-    <x v="297"/>
-    <s v="qb2.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="298"/>
-    <x v="298"/>
-    <s v="qb2.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="299"/>
-    <x v="299"/>
-    <s v="qb2.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="300"/>
-    <x v="300"/>
-    <s v="qb2.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="301"/>
-    <x v="301"/>
-    <s v="qb2.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="302"/>
-    <x v="302"/>
-    <s v="qb2.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="303"/>
-    <x v="303"/>
-    <s v="qb2.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="304"/>
-    <x v="304"/>
-    <s v="qb2.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="305"/>
-    <x v="305"/>
-    <s v="qb3_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="306"/>
-    <x v="306"/>
-    <s v="qb3_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="307"/>
-    <x v="307"/>
-    <s v="qb4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="308"/>
-    <x v="308"/>
-    <s v="qb5_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <x v="309"/>
-    <s v="qb5_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="310"/>
-    <x v="310"/>
-    <s v="qb5_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="311"/>
-    <x v="311"/>
-    <s v="qb5_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="312"/>
-    <x v="312"/>
-    <s v="qc1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="313"/>
-    <x v="313"/>
-    <s v="qc2a_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="314"/>
-    <x v="314"/>
-    <s v="qc2a_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="315"/>
-    <x v="315"/>
-    <s v="qc2a_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="316"/>
-    <x v="316"/>
-    <s v="qc2a_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="317"/>
-    <x v="317"/>
-    <s v="qc2a_5"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="318"/>
-    <x v="318"/>
-    <s v="qc2b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="319"/>
-    <x v="319"/>
-    <s v="qc2b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="320"/>
-    <x v="320"/>
-    <s v="qd1a_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="321"/>
-    <x v="321"/>
-    <s v="qd1a_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="322"/>
-    <x v="322"/>
-    <s v="qd1a_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="323"/>
-    <x v="323"/>
-    <s v="qd1a_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="324"/>
-    <x v="324"/>
-    <s v="qd1b_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="325"/>
-    <x v="325"/>
-    <s v="qd1b_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="326"/>
-    <x v="326"/>
-    <s v="qd1b_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="327"/>
-    <x v="327"/>
-    <s v="qd1b_4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="328"/>
-    <x v="328"/>
-    <s v="qd2_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="329"/>
-    <x v="329"/>
-    <s v="qd2_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="330"/>
-    <x v="330"/>
-    <s v="qd2_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="331"/>
-    <x v="331"/>
-    <s v="qd3"/>
-    <x v="0"/>
-    <s v="categorical"/>
-  </r>
-  <r>
-    <n v="332"/>
-    <x v="332"/>
-    <s v="qd4a"/>
-    <x v="0"/>
-    <s v="categorical"/>
-  </r>
-  <r>
-    <n v="333"/>
-    <x v="333"/>
-    <s v="qd4b.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="334"/>
-    <x v="334"/>
-    <s v="qd4b.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="335"/>
-    <x v="335"/>
-    <s v="qd4b.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="336"/>
-    <x v="336"/>
-    <s v="qd4b.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="337"/>
-    <x v="337"/>
-    <s v="qd4b.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="338"/>
-    <x v="338"/>
-    <s v="qd4b.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="339"/>
-    <x v="339"/>
-    <s v="qd4b.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="340"/>
-    <x v="340"/>
-    <s v="qd4b.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="341"/>
-    <x v="341"/>
-    <s v="qd4b.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="342"/>
-    <x v="342"/>
-    <s v="qd4b.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="343"/>
-    <x v="343"/>
-    <s v="qd4b.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="344"/>
-    <x v="344"/>
-    <s v="qd4t.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="345"/>
-    <x v="345"/>
-    <s v="qd4t.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="346"/>
-    <x v="346"/>
-    <s v="qd4t.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="347"/>
-    <x v="347"/>
-    <s v="qd4t.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="348"/>
-    <x v="348"/>
-    <s v="qd4t.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="349"/>
-    <x v="349"/>
-    <s v="qd4t.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="350"/>
-    <x v="350"/>
-    <s v="qd4t.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="351"/>
-    <x v="351"/>
-    <s v="qd4t.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="352"/>
-    <x v="352"/>
-    <s v="qd4t.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="353"/>
-    <x v="353"/>
-    <s v="qd4t.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="354"/>
-    <x v="354"/>
-    <s v="qd4t.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="355"/>
-    <x v="355"/>
-    <s v="qd5.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="356"/>
-    <x v="356"/>
-    <s v="qd5.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="357"/>
-    <x v="357"/>
-    <s v="qd5.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="358"/>
-    <x v="358"/>
-    <s v="qd5.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="359"/>
-    <x v="359"/>
-    <s v="qd5.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="360"/>
-    <x v="360"/>
-    <s v="qd5.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="361"/>
-    <x v="361"/>
-    <s v="qd5.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="362"/>
-    <x v="362"/>
-    <s v="qd5.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="363"/>
-    <x v="363"/>
-    <s v="qd5.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="364"/>
-    <x v="364"/>
-    <s v="qd5.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="365"/>
-    <x v="365"/>
-    <s v="qd5.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <x v="366"/>
-    <s v="qd5.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="367"/>
-    <x v="367"/>
-    <s v="qd5.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="368"/>
-    <x v="368"/>
-    <s v="qd5.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="369"/>
-    <x v="369"/>
-    <s v="qd5.15"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="370"/>
-    <x v="370"/>
-    <s v="qd5.16"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="371"/>
-    <x v="371"/>
-    <s v="qd5.17"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="372"/>
-    <x v="372"/>
-    <s v="qd6.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="373"/>
-    <x v="373"/>
-    <s v="qd6.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="374"/>
-    <x v="374"/>
-    <s v="qd6.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="375"/>
-    <x v="375"/>
-    <s v="qd6.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="376"/>
-    <x v="376"/>
-    <s v="qd6.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="377"/>
-    <x v="377"/>
-    <s v="qd6.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="378"/>
-    <x v="378"/>
-    <s v="qd6.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="379"/>
-    <x v="379"/>
-    <s v="qd6.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="380"/>
-    <x v="380"/>
-    <s v="qd6.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="381"/>
-    <x v="381"/>
-    <s v="qd6.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <x v="382"/>
-    <s v="qd6.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="383"/>
-    <x v="383"/>
-    <s v="qd6.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="384"/>
-    <x v="384"/>
-    <s v="qd6.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="385"/>
-    <x v="385"/>
-    <s v="qd6.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="386"/>
-    <x v="386"/>
-    <s v="qd7.1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="387"/>
-    <x v="387"/>
-    <s v="qd7.2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="388"/>
-    <x v="388"/>
-    <s v="qd7.3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="389"/>
-    <x v="389"/>
-    <s v="qd7.4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="390"/>
-    <x v="390"/>
-    <s v="qd7.5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="391"/>
-    <x v="391"/>
-    <s v="qd7.6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="392"/>
-    <x v="392"/>
-    <s v="qd7.7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="393"/>
-    <x v="393"/>
-    <s v="qd7.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="394"/>
-    <x v="394"/>
-    <s v="qd7.9"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="395"/>
-    <x v="395"/>
-    <s v="qd7.10"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="396"/>
-    <x v="396"/>
-    <s v="qd7.11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="397"/>
-    <x v="397"/>
-    <s v="qd7.12"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="398"/>
-    <x v="398"/>
-    <s v="qd7.13"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="399"/>
-    <x v="399"/>
-    <s v="qd7.14"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="400"/>
-    <x v="400"/>
-    <s v="qd8"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="401"/>
-    <x v="401"/>
-    <s v="qd9_1"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="402"/>
-    <x v="402"/>
-    <s v="qd9_2"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="403"/>
-    <x v="403"/>
-    <s v="qd9_3"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="404"/>
-    <x v="404"/>
-    <s v="qd9_4"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="405"/>
-    <x v="405"/>
-    <s v="qd9_5"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="406"/>
-    <x v="406"/>
-    <s v="qd9_6"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="407"/>
-    <x v="407"/>
-    <s v="qd9_7"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="408"/>
-    <x v="408"/>
-    <s v="qd10a"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="409"/>
-    <x v="409"/>
-    <s v="qd10ar"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="410"/>
-    <x v="410"/>
-    <s v="qd10b"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="411"/>
-    <x v="411"/>
-    <s v="qd10br"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="412"/>
-    <x v="412"/>
-    <s v="qd11_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="413"/>
-    <x v="413"/>
-    <s v="qd11_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="414"/>
-    <x v="414"/>
-    <s v="qd11_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="415"/>
-    <x v="415"/>
-    <s v="qd11_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="416"/>
-    <x v="416"/>
-    <s v="qd11_5"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="417"/>
-    <x v="417"/>
-    <s v="qd11_6"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="418"/>
-    <x v="418"/>
-    <s v="qd11_7"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="419"/>
-    <x v="419"/>
-    <s v="qd11_8"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="420"/>
-    <x v="420"/>
-    <s v="qd12_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="421"/>
-    <x v="421"/>
-    <s v="qd12_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="422"/>
-    <x v="422"/>
-    <s v="qe1_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="423"/>
-    <x v="423"/>
-    <s v="qe1_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="424"/>
-    <x v="424"/>
-    <s v="qe1_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="425"/>
-    <x v="425"/>
-    <s v="qe1_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="426"/>
-    <x v="426"/>
-    <s v="qe1_5"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="427"/>
-    <x v="427"/>
-    <s v="qe1_6"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="428"/>
-    <x v="428"/>
-    <s v="qe1_7"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="429"/>
-    <x v="429"/>
-    <s v="qe1_8"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="430"/>
-    <x v="430"/>
-    <s v="qe2_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="431"/>
-    <x v="431"/>
-    <s v="qe2_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="432"/>
-    <x v="432"/>
-    <s v="qe2_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="433"/>
-    <x v="433"/>
-    <s v="qe2_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="434"/>
-    <x v="434"/>
-    <s v="qg1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="435"/>
-    <x v="435"/>
-    <s v="qg1_orig"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="436"/>
-    <x v="436"/>
-    <s v="qg1b"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="437"/>
-    <x v="437"/>
-    <s v="qg2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="438"/>
-    <x v="438"/>
-    <s v="qg3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="439"/>
-    <x v="439"/>
-    <s v="qg4a"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="440"/>
-    <x v="440"/>
-    <s v="qg4b.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="441"/>
-    <x v="441"/>
-    <s v="qg4b.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="442"/>
-    <x v="442"/>
-    <s v="qg4b.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="443"/>
-    <x v="443"/>
-    <s v="qg4b.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="444"/>
-    <x v="444"/>
-    <s v="qg4b.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="445"/>
-    <x v="445"/>
-    <s v="qg4b.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="446"/>
-    <x v="446"/>
-    <s v="qg4b.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="447"/>
-    <x v="447"/>
-    <s v="qg4b.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="448"/>
-    <x v="448"/>
-    <s v="qg4b.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="449"/>
-    <x v="449"/>
-    <s v="qg4t.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="450"/>
-    <x v="450"/>
-    <s v="qg4t.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="451"/>
-    <x v="451"/>
-    <s v="qg4t.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="452"/>
-    <x v="452"/>
-    <s v="qg4t.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="453"/>
-    <x v="453"/>
-    <s v="qg4t.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="454"/>
-    <x v="454"/>
-    <s v="qg4t.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="455"/>
-    <x v="455"/>
-    <s v="qg4t.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="456"/>
-    <x v="456"/>
-    <s v="qg4t.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="457"/>
-    <x v="457"/>
-    <s v="qg4t.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="458"/>
-    <x v="458"/>
-    <s v="qg5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="459"/>
-    <x v="459"/>
-    <s v="qg6.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="460"/>
-    <x v="460"/>
-    <s v="qg6.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="461"/>
-    <x v="461"/>
-    <s v="qg6.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="462"/>
-    <x v="462"/>
-    <s v="qg6.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="463"/>
-    <x v="463"/>
-    <s v="qg6.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="464"/>
-    <x v="464"/>
-    <s v="qg6.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="465"/>
-    <x v="465"/>
-    <s v="qg6.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="466"/>
-    <x v="466"/>
-    <s v="qg6.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="467"/>
-    <x v="467"/>
-    <s v="qg6.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="468"/>
-    <x v="468"/>
-    <s v="qg6.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="469"/>
-    <x v="469"/>
-    <s v="qg6.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="470"/>
-    <x v="470"/>
-    <s v="qg6.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="471"/>
-    <x v="471"/>
-    <s v="qg6.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="472"/>
-    <x v="472"/>
-    <s v="qg6.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="473"/>
-    <x v="473"/>
-    <s v="qg6.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="474"/>
-    <x v="474"/>
-    <s v="qg6.16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="475"/>
-    <x v="475"/>
-    <s v="qg6.17"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="476"/>
-    <x v="476"/>
-    <s v="qg7a"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="477"/>
-    <x v="477"/>
-    <s v="qg7b.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="478"/>
-    <x v="478"/>
-    <s v="qg7b.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="479"/>
-    <x v="479"/>
-    <s v="qg7b.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="480"/>
-    <x v="480"/>
-    <s v="qg7b.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="481"/>
-    <x v="481"/>
-    <s v="qg7b.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="482"/>
-    <x v="482"/>
-    <s v="qg7b.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="483"/>
-    <x v="483"/>
-    <s v="qg7b.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="484"/>
-    <x v="484"/>
-    <s v="qg7b.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="485"/>
-    <x v="485"/>
-    <s v="qg7b.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="486"/>
-    <x v="486"/>
-    <s v="qg7b.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="487"/>
-    <x v="487"/>
-    <s v="qg7b.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="488"/>
-    <x v="488"/>
-    <s v="qg7b.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="489"/>
-    <x v="489"/>
-    <s v="qg7b.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="490"/>
-    <x v="490"/>
-    <s v="qg7b.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="491"/>
-    <x v="491"/>
-    <s v="qg7b.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="492"/>
-    <x v="492"/>
-    <s v="qg7b.16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="493"/>
-    <x v="493"/>
-    <s v="qg7t.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="494"/>
-    <x v="494"/>
-    <s v="qg7t.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="495"/>
-    <x v="495"/>
-    <s v="qg7t.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="496"/>
-    <x v="496"/>
-    <s v="qg7t.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="497"/>
-    <x v="497"/>
-    <s v="qg7t.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="498"/>
-    <x v="498"/>
-    <s v="qg7t.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="499"/>
-    <x v="499"/>
-    <s v="qg7t.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="500"/>
-    <x v="500"/>
-    <s v="qg7t.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="501"/>
-    <x v="501"/>
-    <s v="qg7t.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="502"/>
-    <x v="502"/>
-    <s v="qg7t.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="503"/>
-    <x v="503"/>
-    <s v="qg7t.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="504"/>
-    <x v="504"/>
-    <s v="qg7t.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="505"/>
-    <x v="505"/>
-    <s v="qg7t.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="506"/>
-    <x v="506"/>
-    <s v="qg7t.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="507"/>
-    <x v="507"/>
-    <s v="qg7t.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="508"/>
-    <x v="508"/>
-    <s v="qg7t.16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="509"/>
-    <x v="509"/>
-    <s v="qg8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="510"/>
-    <x v="510"/>
-    <s v="qg9.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="511"/>
-    <x v="511"/>
-    <s v="qg9.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="512"/>
-    <x v="512"/>
-    <s v="qg9.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="513"/>
-    <x v="513"/>
-    <s v="qg9.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="514"/>
-    <x v="514"/>
-    <s v="qg9.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="515"/>
-    <x v="515"/>
-    <s v="qg9.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="516"/>
-    <x v="516"/>
-    <s v="qg9.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="517"/>
-    <x v="517"/>
-    <s v="qg9.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="518"/>
-    <x v="518"/>
-    <s v="qg9.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="519"/>
-    <x v="519"/>
-    <s v="qg9.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="520"/>
-    <x v="520"/>
-    <s v="qg9.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="521"/>
-    <x v="521"/>
-    <s v="qg9.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="522"/>
-    <x v="522"/>
-    <s v="qg9.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="523"/>
-    <x v="523"/>
-    <s v="qg9.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="524"/>
-    <x v="524"/>
-    <s v="qg9.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="525"/>
-    <x v="525"/>
-    <s v="qg9.16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="526"/>
-    <x v="526"/>
-    <s v="qg9.17"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="527"/>
-    <x v="527"/>
-    <s v="qg10"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="528"/>
-    <x v="528"/>
-    <s v="qg11_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="529"/>
-    <x v="529"/>
-    <s v="qg11_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="530"/>
-    <x v="530"/>
-    <s v="qg11_3"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="531"/>
-    <x v="531"/>
-    <s v="qg11_4"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="532"/>
-    <x v="532"/>
-    <s v="qg11_5"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="533"/>
-    <x v="533"/>
-    <s v="qg11_6"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="534"/>
-    <x v="534"/>
-    <s v="qg11_7"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="535"/>
-    <x v="535"/>
-    <s v="qg11_8"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="536"/>
-    <x v="536"/>
-    <s v="qg11_9"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="537"/>
-    <x v="537"/>
-    <s v="qg12"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="538"/>
-    <x v="538"/>
-    <s v="qg13_1"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="539"/>
-    <x v="539"/>
-    <s v="qg13_2"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="540"/>
-    <x v="540"/>
-    <s v="qg13_3"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="541"/>
-    <x v="541"/>
-    <s v="qg13_4"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="542"/>
-    <x v="542"/>
-    <s v="qg13_5"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="543"/>
-    <x v="543"/>
-    <s v="qg13_5v"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="544"/>
-    <x v="544"/>
-    <s v="qg14_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="545"/>
-    <x v="545"/>
-    <s v="qg14_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="546"/>
-    <x v="546"/>
-    <s v="qg14_1v"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="547"/>
-    <x v="547"/>
-    <s v="qg14_2v"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="548"/>
-    <x v="548"/>
-    <s v="qg15"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="549"/>
-    <x v="549"/>
-    <s v="qg16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="550"/>
-    <x v="550"/>
-    <s v="qh1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="551"/>
-    <x v="551"/>
-    <s v="qh2.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="552"/>
-    <x v="552"/>
-    <s v="qh2.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="553"/>
-    <x v="553"/>
-    <s v="qh2.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="554"/>
-    <x v="554"/>
-    <s v="qh2.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="555"/>
-    <x v="555"/>
-    <s v="qh2.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="556"/>
-    <x v="556"/>
-    <s v="qh2.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="557"/>
-    <x v="557"/>
-    <s v="qh2.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="558"/>
-    <x v="558"/>
-    <s v="qh2.8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="559"/>
-    <x v="559"/>
-    <s v="qh2.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="560"/>
-    <x v="560"/>
-    <s v="qh2.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="561"/>
-    <x v="561"/>
-    <s v="qh2.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="562"/>
-    <x v="562"/>
-    <s v="qh2.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="563"/>
-    <x v="563"/>
-    <s v="qh2.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="564"/>
-    <x v="564"/>
-    <s v="qh2.14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="565"/>
-    <x v="565"/>
-    <s v="qh2.15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="566"/>
-    <x v="566"/>
-    <s v="qh2.16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="567"/>
-    <x v="567"/>
-    <s v="qh3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="568"/>
-    <x v="568"/>
-    <s v="qh4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="569"/>
-    <x v="569"/>
-    <s v="qh5_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="570"/>
-    <x v="570"/>
-    <s v="qh5_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="571"/>
-    <x v="571"/>
-    <s v="qh5_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="572"/>
-    <x v="572"/>
-    <s v="qh5_4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="573"/>
-    <x v="573"/>
-    <s v="qh5_5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="574"/>
-    <x v="574"/>
-    <s v="qh5_6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="575"/>
-    <x v="575"/>
-    <s v="qh5_7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="576"/>
-    <x v="576"/>
-    <s v="qh6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="577"/>
-    <x v="577"/>
-    <s v="d1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="578"/>
-    <x v="578"/>
-    <s v="d1r1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="579"/>
-    <x v="579"/>
-    <s v="d1r2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="580"/>
-    <x v="580"/>
-    <s v="d7"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="581"/>
-    <x v="581"/>
-    <s v="d7r1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="582"/>
-    <x v="582"/>
-    <s v="d7r2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="583"/>
-    <x v="583"/>
-    <s v="d7r3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="584"/>
-    <x v="584"/>
-    <s v="d8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="585"/>
-    <x v="585"/>
-    <s v="d8r1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="586"/>
-    <x v="586"/>
-    <s v="d8r2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="587"/>
-    <x v="587"/>
-    <s v="d10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="588"/>
-    <x v="588"/>
-    <s v="d11"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="589"/>
-    <x v="589"/>
-    <s v="d11r1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="590"/>
-    <x v="590"/>
-    <s v="d11r2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="591"/>
-    <x v="591"/>
-    <s v="d11r3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="592"/>
-    <x v="592"/>
-    <s v="gen1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="593"/>
-    <x v="593"/>
-    <s v="gen2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="594"/>
-    <x v="594"/>
-    <s v="gen3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="595"/>
-    <x v="595"/>
-    <s v="gen4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="596"/>
-    <x v="596"/>
-    <s v="gen5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="597"/>
-    <x v="597"/>
-    <s v="gen6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="598"/>
-    <x v="598"/>
-    <s v="d15a"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="599"/>
-    <x v="599"/>
-    <s v="d15a_r1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="600"/>
-    <x v="600"/>
-    <s v="d15a_r2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="601"/>
-    <x v="601"/>
-    <s v="d15b"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="602"/>
-    <x v="602"/>
-    <s v="d15b_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="603"/>
-    <x v="603"/>
-    <s v="d25"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="604"/>
-    <x v="604"/>
-    <s v="d40a"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="605"/>
-    <x v="605"/>
-    <s v="d40a_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="606"/>
-    <x v="606"/>
-    <s v="d40b"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="607"/>
-    <x v="607"/>
-    <s v="d40b_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="608"/>
-    <x v="608"/>
-    <s v="d40c"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="609"/>
-    <x v="609"/>
-    <s v="d40c_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="610"/>
-    <x v="610"/>
-    <s v="d40abc"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="611"/>
-    <x v="611"/>
-    <s v="d40abc_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="612"/>
-    <x v="612"/>
-    <s v="d40_d11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="613"/>
-    <x v="613"/>
-    <s v="d43a"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="614"/>
-    <x v="614"/>
-    <s v="d43b"/>
-    <x v="0"/>
-    <s v="hotencode"/>
-  </r>
-  <r>
-    <n v="615"/>
-    <x v="615"/>
-    <s v="d43t"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="616"/>
-    <x v="616"/>
-    <s v="d46.1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="617"/>
-    <x v="617"/>
-    <s v="d46.2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="618"/>
-    <x v="618"/>
-    <s v="d46.3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="619"/>
-    <x v="619"/>
-    <s v="d46.4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="620"/>
-    <x v="620"/>
-    <s v="d46.5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="621"/>
-    <x v="621"/>
-    <s v="d46.6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="622"/>
-    <x v="622"/>
-    <s v="d46.7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="623"/>
-    <x v="623"/>
-    <s v="d46.8"/>
-    <x v="0"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="624"/>
-    <x v="624"/>
-    <s v="d46.9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="625"/>
-    <x v="625"/>
-    <s v="d46.10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="626"/>
-    <x v="626"/>
-    <s v="d46.11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="627"/>
-    <x v="627"/>
-    <s v="d46.12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="628"/>
-    <x v="628"/>
-    <s v="d46.13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="629"/>
-    <x v="629"/>
-    <s v="d46t1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="630"/>
-    <x v="630"/>
-    <s v="d46t2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="631"/>
-    <x v="631"/>
-    <s v="d60"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="632"/>
-    <x v="632"/>
-    <s v="d62_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="633"/>
-    <x v="633"/>
-    <s v="d62_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="634"/>
-    <x v="634"/>
-    <s v="d62_3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="635"/>
-    <x v="635"/>
-    <s v="d62_4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="636"/>
-    <x v="636"/>
-    <s v="netuse"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="637"/>
-    <x v="637"/>
-    <s v="d62t"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="638"/>
-    <x v="638"/>
-    <s v="d63"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="639"/>
-    <x v="639"/>
-    <s v="d72_1"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="640"/>
-    <x v="640"/>
-    <s v="d72_2"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="641"/>
-    <x v="641"/>
-    <s v="d77"/>
-    <x v="0"/>
-    <s v="ordinal"/>
-  </r>
-  <r>
-    <n v="642"/>
-    <x v="642"/>
-    <s v="paeu"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="643"/>
-    <x v="643"/>
-    <s v="p1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="644"/>
-    <x v="644"/>
-    <s v="p2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="645"/>
-    <x v="645"/>
-    <s v="p3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="646"/>
-    <x v="646"/>
-    <s v="p3r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="647"/>
-    <x v="647"/>
-    <s v="p4"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="648"/>
-    <x v="648"/>
-    <s v="p5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="649"/>
-    <x v="649"/>
-    <s v="p6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="650"/>
-    <x v="650"/>
-    <s v="p7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="651"/>
-    <x v="651"/>
-    <s v="p13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="652"/>
-    <x v="652"/>
-    <s v="p6be"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="653"/>
-    <x v="653"/>
-    <s v="p6at"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="654"/>
-    <x v="654"/>
-    <s v="p6bg"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="655"/>
-    <x v="655"/>
-    <s v="p6cy"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="656"/>
-    <x v="656"/>
-    <s v="p6cz"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="657"/>
-    <x v="657"/>
-    <s v="p6dk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="658"/>
-    <x v="658"/>
-    <s v="p6ee"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="659"/>
-    <x v="659"/>
-    <s v="p6de"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="660"/>
-    <x v="660"/>
-    <s v="p6gr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="661"/>
-    <x v="661"/>
-    <s v="p6es"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="662"/>
-    <x v="662"/>
-    <s v="p6fi"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="663"/>
-    <x v="663"/>
-    <s v="p6fr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="664"/>
-    <x v="664"/>
-    <s v="p6gb"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="665"/>
-    <x v="665"/>
-    <s v="p6hu"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="666"/>
-    <x v="666"/>
-    <s v="p6ie"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="667"/>
-    <x v="667"/>
-    <s v="p6it"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="668"/>
-    <x v="668"/>
-    <s v="p6lt"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="669"/>
-    <x v="669"/>
-    <s v="p6lu"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="670"/>
-    <x v="670"/>
-    <s v="p6lv"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="671"/>
-    <x v="671"/>
-    <s v="p6mt"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="672"/>
-    <x v="672"/>
-    <s v="p6nl"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="673"/>
-    <x v="673"/>
-    <s v="p6pl"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="674"/>
-    <x v="674"/>
-    <s v="p6pt"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="675"/>
-    <x v="675"/>
-    <s v="p6ro"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="676"/>
-    <x v="676"/>
-    <s v="p6se"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="677"/>
-    <x v="677"/>
-    <s v="p6si"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="678"/>
-    <x v="678"/>
-    <s v="p6sk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="679"/>
-    <x v="679"/>
-    <s v="p6hr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="680"/>
-    <x v="680"/>
-    <s v="p6al"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="681"/>
-    <x v="681"/>
-    <s v="p6tr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="682"/>
-    <x v="682"/>
-    <s v="p6cytcc"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="683"/>
-    <x v="683"/>
-    <s v="p6mk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="684"/>
-    <x v="684"/>
-    <s v="p6me"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="685"/>
-    <x v="685"/>
-    <s v="p6rs"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="686"/>
-    <x v="686"/>
-    <s v="p7be"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="687"/>
-    <x v="687"/>
-    <s v="p7be_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="688"/>
-    <x v="688"/>
-    <s v="p7at"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="689"/>
-    <x v="689"/>
-    <s v="p7at_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="690"/>
-    <x v="690"/>
-    <s v="p7bg"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="691"/>
-    <x v="691"/>
-    <s v="p7cy"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="692"/>
-    <x v="692"/>
-    <s v="p7cz"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="693"/>
-    <x v="693"/>
-    <s v="p7dk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="694"/>
-    <x v="694"/>
-    <s v="p7ee"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="695"/>
-    <x v="695"/>
-    <s v="p7de"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="696"/>
-    <x v="696"/>
-    <s v="p7gr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="697"/>
-    <x v="697"/>
-    <s v="p7gr_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="698"/>
-    <x v="698"/>
-    <s v="p7es"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="699"/>
-    <x v="699"/>
-    <s v="p7es_r1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="700"/>
-    <x v="700"/>
-    <s v="p7es_r2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="701"/>
-    <x v="701"/>
-    <s v="p7fi"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="702"/>
-    <x v="702"/>
-    <s v="p7fr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="703"/>
-    <x v="703"/>
-    <s v="p7fr_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="704"/>
-    <x v="704"/>
-    <s v="p7gb"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="705"/>
-    <x v="705"/>
-    <s v="p7gb_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="706"/>
-    <x v="706"/>
-    <s v="p7hu"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="707"/>
-    <x v="707"/>
-    <s v="p7hu_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="708"/>
-    <x v="708"/>
-    <s v="p7ie"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="709"/>
-    <x v="709"/>
-    <s v="p7it"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="710"/>
-    <x v="710"/>
-    <s v="p7it_r1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="711"/>
-    <x v="711"/>
-    <s v="p7it_r2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="712"/>
-    <x v="712"/>
-    <s v="p7lt"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="713"/>
-    <x v="713"/>
-    <s v="p7lu"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="714"/>
-    <x v="714"/>
-    <s v="p7lv"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="715"/>
-    <x v="715"/>
-    <s v="p7nl"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="716"/>
-    <x v="716"/>
-    <s v="p7nl_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="717"/>
-    <x v="717"/>
-    <s v="p7pl"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="718"/>
-    <x v="718"/>
-    <s v="p7pl_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="719"/>
-    <x v="719"/>
-    <s v="p7pt"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="720"/>
-    <x v="720"/>
-    <s v="p7ro"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="721"/>
-    <x v="721"/>
-    <s v="p7ro_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="722"/>
-    <x v="722"/>
-    <s v="p7se"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="723"/>
-    <x v="723"/>
-    <s v="p7se_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="724"/>
-    <x v="724"/>
-    <s v="p7si"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="725"/>
-    <x v="725"/>
-    <s v="p7si_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="726"/>
-    <x v="726"/>
-    <s v="p7sk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="727"/>
-    <x v="727"/>
-    <s v="p7hr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="728"/>
-    <x v="728"/>
-    <s v="p7hr_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="729"/>
-    <x v="729"/>
-    <s v="p7al"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="730"/>
-    <x v="730"/>
-    <s v="p7tr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="731"/>
-    <x v="731"/>
-    <s v="p7tr_r"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="732"/>
-    <x v="732"/>
-    <s v="p7cytcc"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="733"/>
-    <x v="733"/>
-    <s v="p7mk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="734"/>
-    <x v="734"/>
-    <s v="p7me"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="735"/>
-    <x v="735"/>
-    <s v="p7rs"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="736"/>
-    <x v="736"/>
-    <s v="nuts"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="737"/>
-    <x v="737"/>
-    <s v="nutslvl"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="738"/>
-    <x v="738"/>
-    <s v="p13be"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="739"/>
-    <x v="739"/>
-    <s v="p13ee"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="740"/>
-    <x v="740"/>
-    <s v="p13es"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="741"/>
-    <x v="741"/>
-    <s v="p13fi"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="742"/>
-    <x v="742"/>
-    <s v="p13lu"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="743"/>
-    <x v="743"/>
-    <s v="p13lv"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="744"/>
-    <x v="744"/>
-    <s v="p13mt"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="745"/>
-    <x v="745"/>
-    <s v="p13tr"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="746"/>
-    <x v="746"/>
-    <s v="p13mk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="747"/>
-    <x v="747"/>
-    <s v="cntry_de"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="748"/>
-    <x v="748"/>
-    <s v="eu6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="749"/>
-    <x v="749"/>
-    <s v="eu9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="750"/>
-    <x v="750"/>
-    <s v="eu10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="751"/>
-    <x v="751"/>
-    <s v="eu12_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="752"/>
-    <x v="752"/>
-    <s v="eu12_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="753"/>
-    <x v="753"/>
-    <s v="eu_nms3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="754"/>
-    <x v="754"/>
-    <s v="eu15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="755"/>
-    <x v="755"/>
-    <s v="eu_nms10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="756"/>
-    <x v="756"/>
-    <s v="eu25"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="757"/>
-    <x v="757"/>
-    <s v="eu_ac2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="758"/>
-    <x v="758"/>
-    <s v="eu_cc2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="759"/>
-    <x v="759"/>
-    <s v="eu_cc4_1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="760"/>
-    <x v="760"/>
-    <s v="eu_nms12"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="761"/>
-    <x v="761"/>
-    <s v="eu27"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="762"/>
-    <x v="762"/>
-    <s v="eu_nms13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="763"/>
-    <x v="763"/>
-    <s v="eu28"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="764"/>
-    <x v="764"/>
-    <s v="eu27b"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="765"/>
-    <x v="765"/>
-    <s v="eu_cc4_2"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="766"/>
-    <x v="766"/>
-    <s v="eu_cc5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="767"/>
-    <x v="767"/>
-    <s v="euccbalk"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="768"/>
-    <x v="768"/>
-    <s v="euroz13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="769"/>
-    <x v="769"/>
-    <s v="euronz13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="770"/>
-    <x v="770"/>
-    <s v="euroz15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="771"/>
-    <x v="771"/>
-    <s v="euronz15"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="772"/>
-    <x v="772"/>
-    <s v="euroz16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="773"/>
-    <x v="773"/>
-    <s v="euronz16"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="774"/>
-    <x v="774"/>
-    <s v="euroz17"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="775"/>
-    <x v="775"/>
-    <s v="eurnz17a"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="776"/>
-    <x v="776"/>
-    <s v="eurnz17b"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="777"/>
-    <x v="777"/>
-    <s v="euroz18"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="778"/>
-    <x v="778"/>
-    <s v="eurnz18a"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="779"/>
-    <x v="779"/>
-    <s v="eurnz18b"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="780"/>
-    <x v="780"/>
-    <s v="eurnz18c"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="781"/>
-    <x v="781"/>
-    <s v="euroz19"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="782"/>
-    <x v="782"/>
-    <s v="eurnz19"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="783"/>
-    <x v="783"/>
-    <s v="w1"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="784"/>
-    <x v="784"/>
-    <s v="w3"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="785"/>
-    <x v="785"/>
-    <s v="w5"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="786"/>
-    <x v="786"/>
-    <s v="w6"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="787"/>
-    <x v="787"/>
-    <s v="w7"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="788"/>
-    <x v="788"/>
-    <s v="w8"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="789"/>
-    <x v="789"/>
-    <s v="w9"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="790"/>
-    <x v="790"/>
-    <s v="w10"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="791"/>
-    <x v="791"/>
-    <s v="w11"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="792"/>
-    <x v="792"/>
-    <s v="w13"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="793"/>
-    <x v="793"/>
-    <s v="w14"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="794"/>
-    <x v="794"/>
-    <s v="w24"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="795"/>
-    <x v="795"/>
-    <s v="w22"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="796"/>
-    <x v="796"/>
-    <s v="w94"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="797"/>
-    <x v="797"/>
-    <s v="w23"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="798"/>
-    <x v="798"/>
-    <s v="w29"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="799"/>
-    <x v="799"/>
-    <s v="w30"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="800"/>
-    <x v="800"/>
-    <s v="w81"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="801"/>
-    <x v="801"/>
-    <s v="w82"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="802"/>
-    <x v="802"/>
-    <s v="w89"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="803"/>
-    <x v="803"/>
-    <s v="w90"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="804"/>
-    <x v="804"/>
-    <s v="w98"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="805"/>
-    <x v="805"/>
-    <s v="w83"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="806"/>
-    <x v="806"/>
-    <s v="w84"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="807"/>
-    <x v="807"/>
-    <s v="w99"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="808"/>
-    <x v="808"/>
-    <s v="w85"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="809"/>
-    <x v="809"/>
-    <s v="w86"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="810"/>
-    <x v="810"/>
-    <s v="w87"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="811"/>
-    <x v="811"/>
-    <s v="w95"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="812"/>
-    <x v="812"/>
-    <s v="w100"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="813"/>
-    <x v="813"/>
-    <s v="w97"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="814"/>
-    <x v="814"/>
-    <s v="w92"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="815"/>
-    <x v="815"/>
-    <s v="wex"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="816"/>
-    <x v="816"/>
-    <s v="w31"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="817"/>
-    <x v="817"/>
-    <s v="w35"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="818"/>
-    <x v="818"/>
-    <s v="w36"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="819"/>
-    <x v="819"/>
-    <s v="w37"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="820"/>
-    <x v="820"/>
-    <s v="w38"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="821"/>
-    <x v="821"/>
-    <s v="w39"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="822"/>
-    <x v="822"/>
-    <s v="w40"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="823"/>
-    <x v="823"/>
-    <s v="w41"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="824"/>
-    <x v="824"/>
-    <s v="w43"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="825"/>
-    <x v="825"/>
-    <s v="w44"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="826"/>
-    <x v="826"/>
-    <s v="w52"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="827"/>
-    <x v="827"/>
-    <s v="w53"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="828"/>
-    <x v="828"/>
-    <s v="w54"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="829"/>
-    <x v="829"/>
-    <s v="w59"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="830"/>
-    <x v="830"/>
-    <s v="w60"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="831"/>
-    <x v="831"/>
-    <s v="w61"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="832"/>
-    <x v="832"/>
-    <s v="w62"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="833"/>
-    <x v="833"/>
-    <s v="w63"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="834"/>
-    <x v="834"/>
-    <s v="w64"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="835"/>
-    <x v="835"/>
-    <s v="w65"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="836"/>
-    <x v="836"/>
-    <s v="w66"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="837"/>
-    <x v="837"/>
-    <s v="w67"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="838"/>
-    <x v="838"/>
-    <s v="w69"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="839"/>
-    <x v="839"/>
-    <s v="w70"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="840"/>
-    <x v="840"/>
-    <s v="w74"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="841"/>
-    <x v="841"/>
-    <s v="w78"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="842"/>
-    <x v="842"/>
-    <s v="w79"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="843"/>
-    <x v="843"/>
-    <s v="wexmen"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="844"/>
-    <x v="844"/>
-    <s v="w101"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="845"/>
-    <x v="845"/>
-    <s v="w105"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="846"/>
-    <x v="846"/>
-    <s v="w106"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="847"/>
-    <x v="847"/>
-    <s v="w107"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="848"/>
-    <x v="848"/>
-    <s v="w108"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="849"/>
-    <x v="849"/>
-    <s v="w109"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="850"/>
-    <x v="850"/>
-    <s v="w110"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="851"/>
-    <x v="851"/>
-    <s v="w111"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="852"/>
-    <x v="852"/>
-    <s v="w113"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="853"/>
-    <x v="853"/>
-    <s v="w114"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="854"/>
-    <x v="854"/>
-    <s v="w122"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="855"/>
-    <x v="855"/>
-    <s v="w123"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="856"/>
-    <x v="856"/>
-    <s v="w124"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="857"/>
-    <x v="857"/>
-    <s v="w129"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="858"/>
-    <x v="858"/>
-    <s v="w130"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="859"/>
-    <x v="859"/>
-    <s v="w131"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="860"/>
-    <x v="860"/>
-    <s v="w132"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="861"/>
-    <x v="861"/>
-    <s v="w133"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="862"/>
-    <x v="862"/>
-    <s v="w134"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="863"/>
-    <x v="863"/>
-    <s v="w135"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="864"/>
-    <x v="864"/>
-    <s v="w136"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="865"/>
-    <x v="865"/>
-    <s v="w137"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="866"/>
-    <x v="866"/>
-    <s v="w139"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="867"/>
-    <x v="867"/>
-    <s v="w140"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="868"/>
-    <x v="868"/>
-    <s v="w144"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="869"/>
-    <x v="869"/>
-    <s v="w148"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="870"/>
-    <x v="870"/>
-    <s v="w149"/>
-    <x v="1"/>
-    <s v="no"/>
-  </r>
-  <r>
-    <n v="871"/>
-    <x v="871"/>
-    <s v="wexmen2"/>
-    <x v="1"/>
     <s v="no"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9D50070-9483-F446-8911-B497CD0735EE}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G2:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="873">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item x="413"/>
-        <item x="414"/>
-        <item x="415"/>
-        <item x="416"/>
-        <item x="417"/>
-        <item x="418"/>
-        <item x="419"/>
-        <item x="420"/>
-        <item x="421"/>
-        <item x="422"/>
-        <item x="423"/>
-        <item x="424"/>
-        <item x="425"/>
-        <item x="426"/>
-        <item x="427"/>
-        <item x="428"/>
-        <item x="429"/>
-        <item x="430"/>
-        <item x="431"/>
-        <item x="432"/>
-        <item x="433"/>
-        <item x="434"/>
-        <item x="435"/>
-        <item x="436"/>
-        <item x="437"/>
-        <item x="438"/>
-        <item x="439"/>
-        <item x="440"/>
-        <item x="441"/>
-        <item x="442"/>
-        <item x="443"/>
-        <item x="444"/>
-        <item x="445"/>
-        <item x="446"/>
-        <item x="447"/>
-        <item x="448"/>
-        <item x="449"/>
-        <item x="450"/>
-        <item x="451"/>
-        <item x="452"/>
-        <item x="453"/>
-        <item x="454"/>
-        <item x="455"/>
-        <item x="456"/>
-        <item x="457"/>
-        <item x="458"/>
-        <item x="459"/>
-        <item x="460"/>
-        <item x="461"/>
-        <item x="462"/>
-        <item x="463"/>
-        <item x="464"/>
-        <item x="465"/>
-        <item x="466"/>
-        <item x="467"/>
-        <item x="468"/>
-        <item x="469"/>
-        <item x="470"/>
-        <item x="471"/>
-        <item x="472"/>
-        <item x="473"/>
-        <item x="474"/>
-        <item x="475"/>
-        <item x="476"/>
-        <item x="477"/>
-        <item x="478"/>
-        <item x="479"/>
-        <item x="480"/>
-        <item x="481"/>
-        <item x="482"/>
-        <item x="483"/>
-        <item x="484"/>
-        <item x="485"/>
-        <item x="486"/>
-        <item x="487"/>
-        <item x="488"/>
-        <item x="489"/>
-        <item x="490"/>
-        <item x="491"/>
-        <item x="492"/>
-        <item x="493"/>
-        <item x="494"/>
-        <item x="495"/>
-        <item x="496"/>
-        <item x="497"/>
-        <item x="498"/>
-        <item x="499"/>
-        <item x="500"/>
-        <item x="501"/>
-        <item x="502"/>
-        <item x="503"/>
-        <item x="504"/>
-        <item x="505"/>
-        <item x="506"/>
-        <item x="507"/>
-        <item x="508"/>
-        <item x="509"/>
-        <item x="510"/>
-        <item x="511"/>
-        <item x="512"/>
-        <item x="513"/>
-        <item x="514"/>
-        <item x="515"/>
-        <item x="516"/>
-        <item x="517"/>
-        <item x="518"/>
-        <item x="519"/>
-        <item x="520"/>
-        <item x="521"/>
-        <item x="522"/>
-        <item x="523"/>
-        <item x="524"/>
-        <item x="525"/>
-        <item x="526"/>
-        <item x="527"/>
-        <item x="528"/>
-        <item x="529"/>
-        <item x="530"/>
-        <item x="531"/>
-        <item x="532"/>
-        <item x="533"/>
-        <item x="534"/>
-        <item x="535"/>
-        <item x="536"/>
-        <item x="537"/>
-        <item x="538"/>
-        <item x="539"/>
-        <item x="540"/>
-        <item x="541"/>
-        <item x="542"/>
-        <item x="543"/>
-        <item x="544"/>
-        <item x="545"/>
-        <item x="546"/>
-        <item x="547"/>
-        <item x="548"/>
-        <item x="549"/>
-        <item x="550"/>
-        <item x="551"/>
-        <item x="552"/>
-        <item x="553"/>
-        <item x="554"/>
-        <item x="555"/>
-        <item x="556"/>
-        <item x="557"/>
-        <item x="558"/>
-        <item x="559"/>
-        <item x="560"/>
-        <item x="561"/>
-        <item x="562"/>
-        <item x="563"/>
-        <item x="564"/>
-        <item x="565"/>
-        <item x="566"/>
-        <item x="567"/>
-        <item x="568"/>
-        <item x="569"/>
-        <item x="570"/>
-        <item x="571"/>
-        <item x="572"/>
-        <item x="573"/>
-        <item x="574"/>
-        <item x="575"/>
-        <item x="576"/>
-        <item x="577"/>
-        <item x="578"/>
-        <item x="579"/>
-        <item x="580"/>
-        <item x="581"/>
-        <item x="582"/>
-        <item x="583"/>
-        <item x="584"/>
-        <item x="585"/>
-        <item x="586"/>
-        <item x="587"/>
-        <item x="588"/>
-        <item x="589"/>
-        <item x="590"/>
-        <item x="591"/>
-        <item x="592"/>
-        <item x="593"/>
-        <item x="594"/>
-        <item x="595"/>
-        <item x="596"/>
-        <item x="597"/>
-        <item x="598"/>
-        <item x="599"/>
-        <item x="600"/>
-        <item x="601"/>
-        <item x="602"/>
-        <item x="603"/>
-        <item x="604"/>
-        <item x="605"/>
-        <item x="606"/>
-        <item x="607"/>
-        <item x="608"/>
-        <item x="609"/>
-        <item x="610"/>
-        <item x="611"/>
-        <item x="612"/>
-        <item x="613"/>
-        <item x="614"/>
-        <item x="615"/>
-        <item x="616"/>
-        <item x="617"/>
-        <item x="618"/>
-        <item x="619"/>
-        <item x="620"/>
-        <item x="621"/>
-        <item x="622"/>
-        <item x="623"/>
-        <item x="624"/>
-        <item x="625"/>
-        <item x="626"/>
-        <item x="627"/>
-        <item x="628"/>
-        <item x="629"/>
-        <item x="630"/>
-        <item x="631"/>
-        <item x="632"/>
-        <item x="633"/>
-        <item x="634"/>
-        <item x="635"/>
-        <item x="636"/>
-        <item x="637"/>
-        <item x="638"/>
-        <item x="639"/>
-        <item x="640"/>
-        <item x="641"/>
-        <item x="642"/>
-        <item x="643"/>
-        <item x="644"/>
-        <item x="645"/>
-        <item x="646"/>
-        <item x="647"/>
-        <item x="648"/>
-        <item x="649"/>
-        <item x="650"/>
-        <item x="651"/>
-        <item x="652"/>
-        <item x="653"/>
-        <item x="654"/>
-        <item x="655"/>
-        <item x="656"/>
-        <item x="657"/>
-        <item x="658"/>
-        <item x="659"/>
-        <item x="660"/>
-        <item x="661"/>
-        <item x="662"/>
-        <item x="663"/>
-        <item x="664"/>
-        <item x="665"/>
-        <item x="666"/>
-        <item x="667"/>
-        <item x="668"/>
-        <item x="669"/>
-        <item x="670"/>
-        <item x="671"/>
-        <item x="672"/>
-        <item x="673"/>
-        <item x="674"/>
-        <item x="675"/>
-        <item x="676"/>
-        <item x="677"/>
-        <item x="678"/>
-        <item x="679"/>
-        <item x="680"/>
-        <item x="681"/>
-        <item x="682"/>
-        <item x="683"/>
-        <item x="684"/>
-        <item x="685"/>
-        <item x="686"/>
-        <item x="687"/>
-        <item x="688"/>
-        <item x="689"/>
-        <item x="690"/>
-        <item x="691"/>
-        <item x="692"/>
-        <item x="693"/>
-        <item x="694"/>
-        <item x="695"/>
-        <item x="696"/>
-        <item x="697"/>
-        <item x="698"/>
-        <item x="699"/>
-        <item x="700"/>
-        <item x="701"/>
-        <item x="702"/>
-        <item x="703"/>
-        <item x="704"/>
-        <item x="705"/>
-        <item x="706"/>
-        <item x="707"/>
-        <item x="708"/>
-        <item x="709"/>
-        <item x="710"/>
-        <item x="711"/>
-        <item x="712"/>
-        <item x="713"/>
-        <item x="714"/>
-        <item x="715"/>
-        <item x="716"/>
-        <item x="717"/>
-        <item x="718"/>
-        <item x="719"/>
-        <item x="720"/>
-        <item x="721"/>
-        <item x="722"/>
-        <item x="723"/>
-        <item x="724"/>
-        <item x="725"/>
-        <item x="726"/>
-        <item x="727"/>
-        <item x="728"/>
-        <item x="729"/>
-        <item x="730"/>
-        <item x="731"/>
-        <item x="732"/>
-        <item x="733"/>
-        <item x="734"/>
-        <item x="735"/>
-        <item x="736"/>
-        <item x="737"/>
-        <item x="738"/>
-        <item x="739"/>
-        <item x="740"/>
-        <item x="741"/>
-        <item x="742"/>
-        <item x="743"/>
-        <item x="744"/>
-        <item x="745"/>
-        <item x="746"/>
-        <item x="747"/>
-        <item x="748"/>
-        <item x="749"/>
-        <item x="750"/>
-        <item x="751"/>
-        <item x="752"/>
-        <item x="753"/>
-        <item x="754"/>
-        <item x="755"/>
-        <item x="756"/>
-        <item x="757"/>
-        <item x="758"/>
-        <item x="759"/>
-        <item x="760"/>
-        <item x="761"/>
-        <item x="762"/>
-        <item x="763"/>
-        <item x="764"/>
-        <item x="765"/>
-        <item x="766"/>
-        <item x="767"/>
-        <item x="768"/>
-        <item x="769"/>
-        <item x="770"/>
-        <item x="771"/>
-        <item x="772"/>
-        <item x="773"/>
-        <item x="774"/>
-        <item x="775"/>
-        <item x="776"/>
-        <item x="777"/>
-        <item x="778"/>
-        <item x="779"/>
-        <item x="780"/>
-        <item x="781"/>
-        <item x="782"/>
-        <item x="783"/>
-        <item x="784"/>
-        <item x="785"/>
-        <item x="786"/>
-        <item x="787"/>
-        <item x="788"/>
-        <item x="789"/>
-        <item x="790"/>
-        <item x="791"/>
-        <item x="792"/>
-        <item x="793"/>
-        <item x="794"/>
-        <item x="795"/>
-        <item x="796"/>
-        <item x="797"/>
-        <item x="798"/>
-        <item x="799"/>
-        <item x="800"/>
-        <item x="801"/>
-        <item x="802"/>
-        <item x="803"/>
-        <item x="804"/>
-        <item x="805"/>
-        <item x="806"/>
-        <item x="807"/>
-        <item x="808"/>
-        <item x="809"/>
-        <item x="810"/>
-        <item x="811"/>
-        <item x="812"/>
-        <item x="813"/>
-        <item x="814"/>
-        <item x="815"/>
-        <item x="816"/>
-        <item x="817"/>
-        <item x="818"/>
-        <item x="819"/>
-        <item x="820"/>
-        <item x="821"/>
-        <item x="822"/>
-        <item x="823"/>
-        <item x="824"/>
-        <item x="825"/>
-        <item x="826"/>
-        <item x="827"/>
-        <item x="828"/>
-        <item x="829"/>
-        <item x="830"/>
-        <item x="831"/>
-        <item x="832"/>
-        <item x="833"/>
-        <item x="834"/>
-        <item x="835"/>
-        <item x="836"/>
-        <item x="837"/>
-        <item x="838"/>
-        <item x="839"/>
-        <item x="840"/>
-        <item x="841"/>
-        <item x="842"/>
-        <item x="843"/>
-        <item x="844"/>
-        <item x="845"/>
-        <item x="846"/>
-        <item x="847"/>
-        <item x="848"/>
-        <item x="849"/>
-        <item x="850"/>
-        <item x="851"/>
-        <item x="852"/>
-        <item x="853"/>
-        <item x="854"/>
-        <item x="855"/>
-        <item x="856"/>
-        <item x="857"/>
-        <item x="858"/>
-        <item x="859"/>
-        <item x="860"/>
-        <item x="861"/>
-        <item x="862"/>
-        <item x="863"/>
-        <item x="864"/>
-        <item x="865"/>
-        <item x="866"/>
-        <item x="867"/>
-        <item x="868"/>
-        <item x="869"/>
-        <item x="870"/>
-        <item x="871"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of keep_columns" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K849:M866" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -18317,8 +10313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A837" workbookViewId="0">
-      <selection activeCell="E615" sqref="E615:E616"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18328,7 +10324,7 @@
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>879</v>
       </c>
@@ -18345,7 +10341,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18361,14 +10357,8 @@
       <c r="E2" t="s">
         <v>878</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="H2" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18384,14 +10374,8 @@
       <c r="E3" t="s">
         <v>878</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="H3" s="13">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18407,14 +10391,8 @@
       <c r="E4" t="s">
         <v>878</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>883</v>
-      </c>
-      <c r="H4" s="13">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18430,14 +10408,8 @@
       <c r="E5" t="s">
         <v>878</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>881</v>
-      </c>
-      <c r="H5" s="13">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18454,7 +10426,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18471,7 +10443,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18488,7 +10460,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18505,7 +10477,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18522,7 +10494,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18539,7 +10511,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18556,7 +10528,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18573,7 +10545,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18590,7 +10562,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18607,7 +10579,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -33249,6 +25221,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Drop_Columns.xlsx
+++ b/Drop_Columns.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benediktkorbach/Documents/GitHub/Machine-Learning-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraos\Desktop\Projects\Machine-Learning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF210C8-2689-8B48-A3F9-D2F03EF932D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46106103-AA89-469F-A64C-9AB722D0DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$873</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="883">
   <si>
     <t>col_index</t>
   </si>
@@ -2676,6 +2679,15 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>DKs</t>
+  </si>
+  <si>
+    <t>consider recoding into dummy</t>
+  </si>
+  <si>
+    <t>multiple DK values</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2889,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2914,7 +2926,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2962,7 +2974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3018,7 +3030,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3138,7 +3150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1061315247"/>
@@ -3197,7 +3209,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1061313599"/>
@@ -3239,7 +3251,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3276,7 +3288,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10005,7 +10017,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K849:M866" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10313,18 +10325,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>879</v>
       </c>
@@ -10340,8 +10357,11 @@
       <c r="E1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10358,7 +10378,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10375,7 +10395,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10392,7 +10412,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10409,7 +10429,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10426,7 +10446,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10443,7 +10463,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10460,7 +10480,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10477,7 +10497,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10494,7 +10514,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10511,7 +10531,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10528,7 +10548,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10545,7 +10565,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10562,7 +10582,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10579,7 +10599,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10596,7 +10616,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10613,7 +10633,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10630,7 +10650,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10647,7 +10667,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10664,7 +10684,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10681,7 +10701,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10698,7 +10718,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10715,7 +10735,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10732,7 +10752,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10749,7 +10769,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10766,7 +10786,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10783,7 +10803,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10800,7 +10820,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10817,7 +10837,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10834,7 +10854,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10851,7 +10871,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10868,7 +10888,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10885,7 +10905,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10902,7 +10922,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10919,7 +10939,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10936,7 +10956,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10953,7 +10973,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10970,7 +10990,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10987,7 +11007,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11004,7 +11024,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11021,7 +11041,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11038,7 +11058,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11055,7 +11075,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11072,7 +11092,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11089,7 +11109,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11106,7 +11126,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11123,7 +11143,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11140,7 +11160,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11157,7 +11177,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11174,7 +11194,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11190,8 +11210,11 @@
       <c r="E51" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11207,8 +11230,11 @@
       <c r="E52" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11224,8 +11250,11 @@
       <c r="E53" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11241,8 +11270,11 @@
       <c r="E54" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11259,7 +11291,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11276,7 +11308,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11293,7 +11325,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11310,7 +11342,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11327,7 +11359,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11343,8 +11375,11 @@
       <c r="E60" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11360,8 +11395,11 @@
       <c r="E61" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11377,8 +11415,11 @@
       <c r="E62" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11394,8 +11435,11 @@
       <c r="E63" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11411,8 +11455,11 @@
       <c r="E64" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11428,8 +11475,11 @@
       <c r="E65" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11445,8 +11495,11 @@
       <c r="E66" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11463,7 +11516,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11480,7 +11533,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11497,7 +11550,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11514,7 +11567,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11531,7 +11584,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11548,7 +11601,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11565,7 +11618,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11581,8 +11634,11 @@
       <c r="E74" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11598,8 +11654,11 @@
       <c r="E75" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11615,8 +11674,11 @@
       <c r="E76" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11632,8 +11694,11 @@
       <c r="E77" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11649,8 +11714,11 @@
       <c r="E78" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11666,8 +11734,11 @@
       <c r="E79" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11683,8 +11754,11 @@
       <c r="E80" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11701,7 +11775,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11718,7 +11792,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11735,7 +11809,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11752,7 +11826,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11769,7 +11843,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11786,7 +11860,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11803,7 +11877,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11820,7 +11894,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11837,7 +11911,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -11854,7 +11928,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11871,7 +11945,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11888,7 +11962,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11905,7 +11979,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11922,7 +11996,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -11939,7 +12013,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11956,7 +12030,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11973,7 +12047,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -11990,7 +12064,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12007,7 +12081,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12024,7 +12098,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12041,7 +12115,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12058,7 +12132,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12075,7 +12149,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12092,7 +12166,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12109,7 +12183,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12126,7 +12200,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12143,7 +12217,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -12160,7 +12234,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12177,7 +12251,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -12194,7 +12268,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12211,7 +12285,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -12228,7 +12302,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -12245,7 +12319,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -12262,7 +12336,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -12279,7 +12353,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -12296,7 +12370,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -12313,7 +12387,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -12330,7 +12404,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -12347,7 +12421,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -12364,7 +12438,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -12381,7 +12455,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -12398,7 +12472,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -12415,7 +12489,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -12432,7 +12506,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -12449,7 +12523,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -12466,7 +12540,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -12483,7 +12557,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -12500,7 +12574,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -12517,7 +12591,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -12534,7 +12608,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12551,7 +12625,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -12568,7 +12642,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12585,7 +12659,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12602,7 +12676,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -12619,7 +12693,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -12636,7 +12710,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -12653,7 +12727,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12670,7 +12744,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12687,7 +12761,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12704,7 +12778,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12721,7 +12795,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12738,7 +12812,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12755,7 +12829,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12772,7 +12846,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12789,7 +12863,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12806,7 +12880,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12823,7 +12897,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12840,7 +12914,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12857,7 +12931,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12874,7 +12948,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12891,7 +12965,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -12908,7 +12982,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12925,7 +12999,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -12942,7 +13016,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -12959,7 +13033,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -12976,7 +13050,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -12993,7 +13067,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -13010,7 +13084,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -13027,7 +13101,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -13044,7 +13118,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -13061,7 +13135,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -13078,7 +13152,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -13095,7 +13169,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -13112,7 +13186,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -13129,7 +13203,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13146,7 +13220,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -13163,7 +13237,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -13180,7 +13254,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -13197,7 +13271,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -13214,7 +13288,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -13231,7 +13305,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13248,7 +13322,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -13265,7 +13339,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -13282,7 +13356,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -13299,7 +13373,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -13316,7 +13390,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -13333,7 +13407,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -13350,7 +13424,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -13367,7 +13441,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -13384,7 +13458,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -13401,7 +13475,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -13418,7 +13492,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -13435,7 +13509,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -13452,7 +13526,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -13469,7 +13543,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -13486,7 +13560,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -13503,7 +13577,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -13520,7 +13594,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -13537,7 +13611,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -13554,7 +13628,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -13571,7 +13645,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -13588,7 +13662,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -13604,8 +13678,11 @@
       <c r="E193" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -13621,8 +13698,11 @@
       <c r="E194" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -13638,8 +13718,11 @@
       <c r="E195" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -13655,8 +13738,11 @@
       <c r="E196" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -13672,8 +13758,11 @@
       <c r="E197" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -13689,8 +13778,11 @@
       <c r="E198" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -13706,8 +13798,11 @@
       <c r="E199" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -13723,8 +13818,11 @@
       <c r="E200" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -13740,8 +13838,11 @@
       <c r="E201" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -13757,8 +13858,11 @@
       <c r="E202" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -13774,8 +13878,11 @@
       <c r="E203" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -13791,8 +13898,11 @@
       <c r="E204" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -13808,8 +13918,11 @@
       <c r="E205" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -13825,8 +13938,11 @@
       <c r="E206" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13843,7 +13959,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13860,7 +13976,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13877,7 +13993,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13894,7 +14010,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13911,7 +14027,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13928,7 +14044,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13945,7 +14061,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13962,7 +14078,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13979,7 +14095,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -13996,7 +14112,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -14013,7 +14129,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -14030,7 +14146,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -14047,7 +14163,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -14064,7 +14180,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -14081,7 +14197,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -14098,7 +14214,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -14114,8 +14230,11 @@
       <c r="E223" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -14131,8 +14250,11 @@
       <c r="E224" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -14148,8 +14270,11 @@
       <c r="E225" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -14165,8 +14290,11 @@
       <c r="E226" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -14182,8 +14310,11 @@
       <c r="E227" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -14199,8 +14330,11 @@
       <c r="E228" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -14217,7 +14351,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -14234,7 +14368,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -14251,7 +14385,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -14268,7 +14402,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -14285,7 +14419,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -14302,7 +14436,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -14319,7 +14453,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -14336,7 +14470,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14353,7 +14487,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14370,7 +14504,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14387,7 +14521,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -14404,7 +14538,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14421,7 +14555,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14438,7 +14572,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14455,7 +14589,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14472,7 +14606,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14489,7 +14623,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14506,7 +14640,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14523,7 +14657,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14540,7 +14674,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14557,7 +14691,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14574,7 +14708,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14591,7 +14725,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14608,7 +14742,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14625,7 +14759,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14642,7 +14776,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14659,7 +14793,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -14676,7 +14810,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14693,7 +14827,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14710,7 +14844,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14727,7 +14861,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14744,7 +14878,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -14761,7 +14895,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -14778,7 +14912,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14795,7 +14929,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14812,7 +14946,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14829,7 +14963,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14846,7 +14980,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14863,7 +14997,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -14880,7 +15014,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -14897,7 +15031,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -14914,7 +15048,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -14931,7 +15065,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -14948,7 +15082,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -14965,7 +15099,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -14982,7 +15116,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -14999,7 +15133,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15016,7 +15150,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15033,7 +15167,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15050,7 +15184,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15067,7 +15201,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15083,8 +15217,11 @@
       <c r="E280" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -15100,8 +15237,11 @@
       <c r="E281" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15117,8 +15257,11 @@
       <c r="E282" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -15134,8 +15277,11 @@
       <c r="E283" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -15151,8 +15297,11 @@
       <c r="E284" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -15168,8 +15317,11 @@
       <c r="E285" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -15185,8 +15337,11 @@
       <c r="E286" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -15202,8 +15357,11 @@
       <c r="E287" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -15220,7 +15378,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -15237,7 +15395,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -15254,7 +15412,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -15270,8 +15428,11 @@
       <c r="E291" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -15288,7 +15449,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -15305,7 +15466,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -15322,7 +15483,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -15339,7 +15500,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -15356,7 +15517,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -15373,7 +15534,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -15390,7 +15551,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -15407,7 +15568,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -15424,7 +15585,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -15441,7 +15602,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -15458,7 +15619,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -15475,7 +15636,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -15492,7 +15653,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -15509,7 +15670,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -15526,7 +15687,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -15542,8 +15703,11 @@
       <c r="E307" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -15559,8 +15723,11 @@
       <c r="E308" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -15577,7 +15744,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -15594,7 +15761,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -15611,7 +15778,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -15628,7 +15795,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -15645,7 +15812,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -15662,7 +15829,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -15679,7 +15846,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -15696,7 +15863,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -15712,8 +15879,11 @@
       <c r="E317" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -15729,8 +15899,11 @@
       <c r="E318" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -15746,8 +15919,11 @@
       <c r="E319" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -15764,7 +15940,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15781,7 +15957,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15797,8 +15973,11 @@
       <c r="E322" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15814,8 +15993,11 @@
       <c r="E323" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F323">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15831,8 +16013,11 @@
       <c r="E324" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15848,8 +16033,11 @@
       <c r="E325" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F325">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15866,7 +16054,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15883,7 +16071,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15900,7 +16088,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15917,7 +16105,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15933,8 +16121,11 @@
       <c r="E330" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F330">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15950,8 +16141,11 @@
       <c r="E331" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15967,8 +16161,11 @@
       <c r="E332" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15985,7 +16182,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -16002,7 +16199,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -16019,7 +16216,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -16036,7 +16233,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -16053,7 +16250,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -16070,7 +16267,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -16087,7 +16284,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -16104,7 +16301,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -16121,7 +16318,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -16138,7 +16335,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -16155,7 +16352,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -16172,7 +16369,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -16189,7 +16386,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -16206,7 +16403,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -16223,7 +16420,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -16240,7 +16437,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -16257,7 +16454,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -16274,7 +16471,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -16291,7 +16488,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16308,7 +16505,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16325,7 +16522,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16342,7 +16539,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16359,7 +16556,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16376,7 +16573,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16393,7 +16590,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16410,7 +16607,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16427,7 +16624,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -16444,7 +16641,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -16461,7 +16658,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -16478,7 +16675,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -16495,7 +16692,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -16512,7 +16709,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -16529,7 +16726,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -16546,7 +16743,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -16563,7 +16760,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -16580,7 +16777,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -16597,7 +16794,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -16614,7 +16811,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -16631,7 +16828,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -16648,7 +16845,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -16665,7 +16862,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -16682,7 +16879,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -16699,7 +16896,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -16716,7 +16913,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -16733,7 +16930,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -16750,7 +16947,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -16767,7 +16964,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -16784,7 +16981,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -16801,7 +16998,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -16818,7 +17015,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -16835,7 +17032,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -16852,7 +17049,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -16869,7 +17066,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -16886,7 +17083,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -16903,7 +17100,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -16920,7 +17117,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -16937,7 +17134,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -16954,7 +17151,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -16971,7 +17168,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -16988,7 +17185,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -17005,7 +17202,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -17022,7 +17219,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -17039,7 +17236,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -17056,7 +17253,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -17073,7 +17270,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -17090,7 +17287,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -17107,7 +17304,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -17124,7 +17321,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -17141,7 +17338,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -17157,8 +17354,11 @@
       <c r="E402" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F402">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -17175,7 +17375,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -17192,7 +17392,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -17209,7 +17409,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -17226,7 +17426,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -17243,7 +17443,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -17260,7 +17460,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -17277,7 +17477,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -17293,8 +17493,11 @@
       <c r="E410" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F410">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -17311,7 +17514,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -17327,8 +17530,11 @@
       <c r="E412" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F412">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -17345,7 +17551,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -17362,7 +17568,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -17379,7 +17585,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -17396,7 +17602,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -17413,7 +17619,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -17430,7 +17636,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17447,7 +17653,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17464,7 +17670,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -17481,7 +17687,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -17497,8 +17703,11 @@
       <c r="E422" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F422">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -17514,8 +17723,11 @@
       <c r="E423" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F423">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -17532,7 +17744,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -17549,7 +17761,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -17566,7 +17778,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -17583,7 +17795,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -17600,7 +17812,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -17617,7 +17829,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -17634,7 +17846,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -17651,7 +17863,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -17667,8 +17879,11 @@
       <c r="E432" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F432">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -17684,8 +17899,11 @@
       <c r="E433" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F433">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -17701,8 +17919,11 @@
       <c r="E434" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F434">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -17718,8 +17939,11 @@
       <c r="E435" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F435">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -17736,7 +17960,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -17753,7 +17977,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -17770,7 +17994,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -17787,7 +18011,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -17804,7 +18028,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -17821,7 +18045,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -17838,7 +18062,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -17855,7 +18079,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -17872,7 +18096,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -17889,7 +18113,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -17906,7 +18130,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -17923,7 +18147,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -17940,7 +18164,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -17957,7 +18181,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -17974,7 +18198,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -17991,7 +18215,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -18008,7 +18232,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -18025,7 +18249,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -18042,7 +18266,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -18059,7 +18283,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -18076,7 +18300,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -18093,7 +18317,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -18110,7 +18334,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -18127,7 +18351,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -18144,7 +18368,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -18161,7 +18385,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -18178,7 +18402,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -18195,7 +18419,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -18212,7 +18436,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -18229,7 +18453,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -18246,7 +18470,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -18263,7 +18487,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -18280,7 +18504,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -18297,7 +18521,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -18314,7 +18538,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -18331,7 +18555,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -18348,7 +18572,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -18365,7 +18589,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -18382,7 +18606,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -18399,7 +18623,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -18416,7 +18640,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -18433,7 +18657,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -18450,7 +18674,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -18467,7 +18691,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -18484,7 +18708,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -18501,7 +18725,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -18518,7 +18742,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -18535,7 +18759,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -18552,7 +18776,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -18569,7 +18793,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -18586,7 +18810,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -18603,7 +18827,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -18620,7 +18844,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -18637,7 +18861,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -18654,7 +18878,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -18671,7 +18895,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -18688,7 +18912,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -18705,7 +18929,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -18722,7 +18946,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -18739,7 +18963,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -18756,7 +18980,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -18773,7 +18997,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -18790,7 +19014,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -18807,7 +19031,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -18824,7 +19048,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -18841,7 +19065,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -18858,7 +19082,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -18875,7 +19099,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -18892,7 +19116,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -18909,7 +19133,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -18926,7 +19150,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -18943,7 +19167,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -18960,7 +19184,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -18977,7 +19201,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -18994,7 +19218,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -19011,7 +19235,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -19028,7 +19252,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -19045,7 +19269,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -19062,7 +19286,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -19079,7 +19303,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -19096,7 +19320,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -19113,7 +19337,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -19130,7 +19354,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -19147,7 +19371,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -19164,7 +19388,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -19181,7 +19405,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -19198,7 +19422,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -19215,7 +19439,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -19232,7 +19456,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -19249,7 +19473,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -19266,7 +19490,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -19283,7 +19507,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -19300,7 +19524,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -19316,8 +19540,11 @@
       <c r="E529" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F529">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -19333,8 +19560,11 @@
       <c r="E530" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F530">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -19350,8 +19580,11 @@
       <c r="E531" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F531">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -19367,8 +19600,11 @@
       <c r="E532" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F532">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -19384,8 +19620,11 @@
       <c r="E533" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F533">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -19401,8 +19640,11 @@
       <c r="E534" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F534">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -19418,8 +19660,11 @@
       <c r="E535" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F535">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -19435,8 +19680,11 @@
       <c r="E536" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F536">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -19452,8 +19700,11 @@
       <c r="E537" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F537">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -19469,8 +19720,11 @@
       <c r="E538" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F538">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -19487,7 +19741,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -19504,7 +19758,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -19521,7 +19775,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -19538,7 +19792,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -19555,7 +19809,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -19572,7 +19826,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -19589,7 +19843,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -19606,7 +19860,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -19623,7 +19877,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -19640,7 +19894,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -19657,7 +19911,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -19674,7 +19928,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -19691,7 +19945,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -19708,7 +19962,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -19725,7 +19979,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -19742,7 +19996,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -19759,7 +20013,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -19776,7 +20030,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -19793,7 +20047,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -19810,7 +20064,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -19827,7 +20081,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -19844,7 +20098,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -19861,7 +20115,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -19878,7 +20132,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -19895,7 +20149,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -19912,7 +20166,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -19929,7 +20183,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -19946,7 +20200,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -19963,7 +20217,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -19980,7 +20234,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -19997,7 +20251,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -20014,7 +20268,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -20031,7 +20285,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -20048,7 +20302,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -20065,7 +20319,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -20082,7 +20336,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -20099,7 +20353,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -20116,7 +20370,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -20133,7 +20387,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -20150,7 +20404,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -20166,8 +20420,11 @@
       <c r="E579" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F579">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -20184,7 +20441,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -20201,7 +20458,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -20218,7 +20475,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -20235,7 +20492,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -20252,7 +20509,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -20269,7 +20526,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -20286,7 +20543,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -20303,7 +20560,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -20320,7 +20577,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -20337,7 +20594,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -20354,7 +20611,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -20371,7 +20628,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -20388,7 +20645,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -20405,7 +20662,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -20422,7 +20679,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -20439,7 +20696,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -20456,7 +20713,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -20473,7 +20730,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -20490,7 +20747,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -20507,7 +20764,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -20524,7 +20781,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -20541,7 +20798,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -20558,7 +20815,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -20575,7 +20832,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -20592,7 +20849,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -20609,7 +20866,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -20626,7 +20883,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -20643,7 +20900,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -20660,7 +20917,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -20677,7 +20934,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -20694,7 +20951,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -20711,7 +20968,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -20728,7 +20985,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -20745,7 +21002,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -20762,7 +21019,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -20779,7 +21036,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -20796,7 +21053,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -20813,7 +21070,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -20830,7 +21087,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -20847,7 +21104,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -20864,7 +21121,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -20881,7 +21138,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -20898,7 +21155,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -20915,7 +21172,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -20932,7 +21189,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -20949,7 +21206,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -20966,7 +21223,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -20983,7 +21240,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -21000,7 +21257,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -21017,7 +21274,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -21034,7 +21291,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -21051,7 +21308,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -21068,7 +21325,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -21084,8 +21341,11 @@
       <c r="E633" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F633">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -21101,8 +21361,14 @@
       <c r="E634" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F634">
+        <v>1077</v>
+      </c>
+      <c r="G634" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -21118,8 +21384,14 @@
       <c r="E635" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F635">
+        <v>2447</v>
+      </c>
+      <c r="G635" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -21136,7 +21408,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -21153,7 +21425,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -21170,7 +21442,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -21187,7 +21459,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -21203,8 +21475,15 @@
       <c r="E640" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F640">
+        <f>53+269+156+612</f>
+        <v>1090</v>
+      </c>
+      <c r="G640" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -21220,8 +21499,11 @@
       <c r="E641" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F641">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -21237,8 +21519,11 @@
       <c r="E642" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F642">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -21254,8 +21539,11 @@
       <c r="E643" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F643">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -21272,7 +21560,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -21289,7 +21577,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -21306,7 +21594,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -21323,7 +21611,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -21340,7 +21628,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -21357,7 +21645,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -21374,7 +21662,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -21391,7 +21679,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -21408,7 +21696,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -21425,7 +21713,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -21442,7 +21730,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -21459,7 +21747,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -21476,7 +21764,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -21493,7 +21781,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -21510,7 +21798,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -21527,7 +21815,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -21544,7 +21832,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -21561,7 +21849,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -21578,7 +21866,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -21595,7 +21883,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -21612,7 +21900,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -21629,7 +21917,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -21646,7 +21934,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -21663,7 +21951,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -21680,7 +21968,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -21697,7 +21985,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -21714,7 +22002,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -21731,7 +22019,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -21748,7 +22036,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -21765,7 +22053,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -21782,7 +22070,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -21799,7 +22087,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -21816,7 +22104,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -21833,7 +22121,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -21850,7 +22138,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -21867,7 +22155,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -21884,7 +22172,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -21901,7 +22189,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -21918,7 +22206,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -21935,7 +22223,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -21952,7 +22240,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -21969,7 +22257,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -21986,7 +22274,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -22003,7 +22291,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -22020,7 +22308,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -22037,7 +22325,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -22054,7 +22342,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -22071,7 +22359,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -22088,7 +22376,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -22105,7 +22393,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -22122,7 +22410,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -22139,7 +22427,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -22156,7 +22444,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -22173,7 +22461,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -22190,7 +22478,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -22207,7 +22495,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -22224,7 +22512,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -22241,7 +22529,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -22258,7 +22546,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -22275,7 +22563,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -22292,7 +22580,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -22309,7 +22597,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -22326,7 +22614,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -22343,7 +22631,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -22360,7 +22648,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -22377,7 +22665,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -22394,7 +22682,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -22411,7 +22699,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -22428,7 +22716,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -22445,7 +22733,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -22462,7 +22750,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -22479,7 +22767,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -22496,7 +22784,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -22513,7 +22801,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -22530,7 +22818,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -22547,7 +22835,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -22564,7 +22852,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -22581,7 +22869,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -22598,7 +22886,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -22615,7 +22903,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -22632,7 +22920,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -22649,7 +22937,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -22666,7 +22954,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -22683,7 +22971,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -22700,7 +22988,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -22717,7 +23005,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -22734,7 +23022,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -22751,7 +23039,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -22768,7 +23056,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -22785,7 +23073,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -22802,7 +23090,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -22819,7 +23107,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -22836,7 +23124,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -22853,7 +23141,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -22870,7 +23158,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -22887,7 +23175,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -22904,7 +23192,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -22921,7 +23209,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -22938,7 +23226,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -22955,7 +23243,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -22972,7 +23260,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -22989,7 +23277,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -23006,7 +23294,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -23023,7 +23311,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -23040,7 +23328,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -23057,7 +23345,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -23074,7 +23362,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -23091,7 +23379,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -23108,7 +23396,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -23125,7 +23413,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -23142,7 +23430,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -23159,7 +23447,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -23176,7 +23464,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -23193,7 +23481,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -23210,7 +23498,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -23227,7 +23515,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -23244,7 +23532,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -23261,7 +23549,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -23278,7 +23566,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -23295,7 +23583,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -23312,7 +23600,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -23329,7 +23617,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -23346,7 +23634,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -23363,7 +23651,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -23380,7 +23668,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -23397,7 +23685,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -23414,7 +23702,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -23431,7 +23719,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -23448,7 +23736,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -23465,7 +23753,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -23482,7 +23770,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -23499,7 +23787,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -23516,7 +23804,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -23533,7 +23821,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -23550,7 +23838,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -23567,7 +23855,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -23584,7 +23872,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -23601,7 +23889,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -23618,7 +23906,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -23635,7 +23923,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -23652,7 +23940,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -23669,7 +23957,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -23686,7 +23974,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -23703,7 +23991,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -23720,7 +24008,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -23737,7 +24025,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -23754,7 +24042,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -23771,7 +24059,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -23788,7 +24076,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -23805,7 +24093,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -23822,7 +24110,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -23839,7 +24127,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -23856,7 +24144,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -23873,7 +24161,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -23890,7 +24178,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -23907,7 +24195,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -23924,7 +24212,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -23941,7 +24229,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -23958,7 +24246,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -23975,7 +24263,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -23992,7 +24280,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -24009,7 +24297,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -24026,7 +24314,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -24043,7 +24331,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -24060,7 +24348,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -24077,7 +24365,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -24094,7 +24382,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -24111,7 +24399,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -24128,7 +24416,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -24145,7 +24433,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -24162,7 +24450,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -24179,7 +24467,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -24196,7 +24484,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -24213,7 +24501,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -24230,7 +24518,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -24247,7 +24535,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -24264,7 +24552,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -24281,7 +24569,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -24298,7 +24586,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -24315,7 +24603,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -24332,7 +24620,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -24349,7 +24637,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -24366,7 +24654,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -24383,7 +24671,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -24400,7 +24688,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -24417,7 +24705,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -24434,7 +24722,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -24451,7 +24739,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -24468,7 +24756,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -24485,7 +24773,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -24502,7 +24790,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -24519,7 +24807,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -24536,7 +24824,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -24553,7 +24841,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -24570,7 +24858,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -24587,7 +24875,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -24604,7 +24892,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -24621,7 +24909,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -24638,7 +24926,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -24655,7 +24943,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -24672,7 +24960,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -24689,7 +24977,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -24706,7 +24994,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -24723,7 +25011,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -24740,7 +25028,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -24760,7 +25048,7 @@
       <c r="L849" s="3"/>
       <c r="M849" s="4"/>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -24780,7 +25068,7 @@
       <c r="L850" s="6"/>
       <c r="M850" s="7"/>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -24800,7 +25088,7 @@
       <c r="L851" s="6"/>
       <c r="M851" s="7"/>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -24820,7 +25108,7 @@
       <c r="L852" s="6"/>
       <c r="M852" s="7"/>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -24840,7 +25128,7 @@
       <c r="L853" s="6"/>
       <c r="M853" s="7"/>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -24860,7 +25148,7 @@
       <c r="L854" s="6"/>
       <c r="M854" s="7"/>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -24880,7 +25168,7 @@
       <c r="L855" s="6"/>
       <c r="M855" s="7"/>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -24900,7 +25188,7 @@
       <c r="L856" s="6"/>
       <c r="M856" s="7"/>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -24920,7 +25208,7 @@
       <c r="L857" s="6"/>
       <c r="M857" s="7"/>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -24940,7 +25228,7 @@
       <c r="L858" s="6"/>
       <c r="M858" s="7"/>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -24960,7 +25248,7 @@
       <c r="L859" s="6"/>
       <c r="M859" s="7"/>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -24980,7 +25268,7 @@
       <c r="L860" s="6"/>
       <c r="M860" s="7"/>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -25000,7 +25288,7 @@
       <c r="L861" s="6"/>
       <c r="M861" s="7"/>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -25020,7 +25308,7 @@
       <c r="L862" s="6"/>
       <c r="M862" s="7"/>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -25040,7 +25328,7 @@
       <c r="L863" s="6"/>
       <c r="M863" s="7"/>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -25060,7 +25348,7 @@
       <c r="L864" s="6"/>
       <c r="M864" s="7"/>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -25080,7 +25368,7 @@
       <c r="L865" s="6"/>
       <c r="M865" s="7"/>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -25100,7 +25388,7 @@
       <c r="L866" s="9"/>
       <c r="M866" s="10"/>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -25117,7 +25405,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -25134,7 +25422,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -25151,7 +25439,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -25168,7 +25456,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -25185,7 +25473,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -25202,7 +25490,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -25220,6 +25508,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M873" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Drop_Columns.xlsx
+++ b/Drop_Columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraos\Desktop\Projects\Machine-Learning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46106103-AA89-469F-A64C-9AB722D0DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFF936-9CE9-4BBB-855D-6577D2821DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="15348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="884">
   <si>
     <t>col_index</t>
   </si>
@@ -2688,6 +2688,9 @@
   </si>
   <si>
     <t>multiple DK values</t>
+  </si>
+  <si>
+    <t>crucial question where no information should be lost</t>
   </si>
 </sst>
 </file>
@@ -10017,7 +10020,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K849:M866" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10323,10 +10326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="F316" sqref="F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10361,7 +10365,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10378,7 +10382,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10395,7 +10399,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10412,7 +10416,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10429,7 +10433,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10446,7 +10450,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10463,7 +10467,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10480,7 +10484,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10497,7 +10501,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10531,7 +10535,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10548,7 +10552,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10565,7 +10569,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10582,7 +10586,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10599,7 +10603,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10650,7 +10654,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10667,7 +10671,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10684,7 +10688,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10752,7 +10756,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10837,7 +10841,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10871,7 +10875,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10888,7 +10892,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10905,7 +10909,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10922,7 +10926,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10939,7 +10943,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10956,7 +10960,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10990,7 +10994,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11024,7 +11028,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11058,7 +11062,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11092,7 +11096,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11109,7 +11113,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11143,7 +11147,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11177,7 +11181,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11214,7 +11218,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11228,13 +11232,13 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F52">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11248,13 +11252,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F53">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11268,13 +11272,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F54">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11291,7 +11295,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11308,7 +11312,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11325,7 +11329,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11342,7 +11346,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11399,7 +11403,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11410,16 +11414,16 @@
         <v>62</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F62">
         <v>3350</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11430,10 +11434,10 @@
         <v>63</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F63">
         <v>5436</v>
@@ -11499,7 +11503,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11516,7 +11520,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11550,7 +11554,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11567,7 +11571,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11601,7 +11605,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11618,7 +11622,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11632,13 +11636,13 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11652,13 +11656,13 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F75">
         <v>1198</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11672,13 +11676,13 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F76">
         <v>1308</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11692,13 +11696,13 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F77">
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11712,13 +11716,13 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F78">
         <v>1537</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11732,13 +11736,13 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F79">
         <v>3216</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11752,13 +11756,13 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F80">
         <v>3082</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11775,7 +11779,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11792,7 +11796,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11809,7 +11813,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11826,7 +11830,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11843,7 +11847,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11860,7 +11864,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11877,7 +11881,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11911,7 +11915,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -11928,7 +11932,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11962,7 +11966,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11979,7 +11983,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11996,7 +12000,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12013,7 +12017,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12030,7 +12034,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12047,7 +12051,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12064,7 +12068,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12081,7 +12085,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12115,7 +12119,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12132,7 +12136,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12149,7 +12153,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12166,7 +12170,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12200,7 +12204,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12217,7 +12221,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12251,7 +12255,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -12268,7 +12272,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -12319,7 +12323,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -12336,7 +12340,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -12353,7 +12357,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -12387,7 +12391,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -12404,7 +12408,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -12421,7 +12425,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -12438,7 +12442,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -12455,7 +12459,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -12472,7 +12476,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -12489,7 +12493,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -12506,7 +12510,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -12523,7 +12527,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -12557,7 +12561,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -12574,7 +12578,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -12591,7 +12595,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -12608,7 +12612,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12625,7 +12629,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -12642,7 +12646,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12659,7 +12663,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12676,7 +12680,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -12693,7 +12697,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -12710,7 +12714,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -12727,7 +12731,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12744,7 +12748,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12761,7 +12765,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12778,7 +12782,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12812,7 +12816,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12829,7 +12833,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12846,7 +12850,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12863,7 +12867,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12880,7 +12884,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12897,7 +12901,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12914,7 +12918,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12931,7 +12935,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12948,7 +12952,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12965,7 +12969,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -12982,7 +12986,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12999,7 +13003,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -13016,7 +13020,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -13033,7 +13037,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -13050,7 +13054,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -13067,7 +13071,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -13084,7 +13088,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -13101,7 +13105,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -13118,7 +13122,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -13152,7 +13156,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -13186,7 +13190,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -13203,7 +13207,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13220,7 +13224,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -13237,7 +13241,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -13254,7 +13258,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -13271,7 +13275,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -13288,7 +13292,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -13305,7 +13309,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -13339,7 +13343,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -13356,7 +13360,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -13373,7 +13377,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -13390,7 +13394,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -13424,7 +13428,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -13441,7 +13445,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -13458,7 +13462,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -13475,7 +13479,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -13492,7 +13496,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -13509,7 +13513,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -13526,7 +13530,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -13543,7 +13547,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -13577,7 +13581,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -13594,7 +13598,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -13611,7 +13615,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -13628,7 +13632,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -13702,7 +13706,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -13713,16 +13717,16 @@
         <v>195</v>
       </c>
       <c r="D195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F195">
         <v>3456</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -13733,10 +13737,10 @@
         <v>196</v>
       </c>
       <c r="D196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F196">
         <v>4618</v>
@@ -13862,7 +13866,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -13873,10 +13877,10 @@
         <v>203</v>
       </c>
       <c r="D203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F203">
         <v>3986</v>
@@ -13902,7 +13906,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -13913,10 +13917,10 @@
         <v>205</v>
       </c>
       <c r="D205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F205">
         <v>2314</v>
@@ -13942,7 +13946,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13959,7 +13963,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13976,7 +13980,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13993,7 +13997,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -14010,7 +14014,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -14027,7 +14031,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -14044,7 +14048,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -14061,7 +14065,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -14078,7 +14082,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -14095,7 +14099,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -14112,7 +14116,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -14129,7 +14133,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -14146,7 +14150,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -14163,7 +14167,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -14180,7 +14184,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -14197,7 +14201,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -14254,7 +14258,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -14265,16 +14269,16 @@
         <v>225</v>
       </c>
       <c r="D225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F225">
         <v>2164</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -14285,16 +14289,16 @@
         <v>226</v>
       </c>
       <c r="D226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F226">
         <v>2321</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -14305,16 +14309,16 @@
         <v>227</v>
       </c>
       <c r="D227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F227">
         <v>2598</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -14325,16 +14329,16 @@
         <v>228</v>
       </c>
       <c r="D228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F228">
         <v>2536</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -14351,7 +14355,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -14368,7 +14372,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -14385,7 +14389,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -14402,7 +14406,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -14419,7 +14423,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -14436,7 +14440,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -14453,7 +14457,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14487,7 +14491,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14504,7 +14508,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14521,7 +14525,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14572,7 +14576,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14589,7 +14593,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14606,7 +14610,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14623,7 +14627,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14640,7 +14644,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14657,7 +14661,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14674,7 +14678,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14691,7 +14695,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14708,7 +14712,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14742,7 +14746,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14759,7 +14763,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14776,7 +14780,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14793,7 +14797,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -14810,7 +14814,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14827,7 +14831,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14844,7 +14848,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14861,7 +14865,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14878,7 +14882,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -14895,7 +14899,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -14912,7 +14916,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14929,7 +14933,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14946,7 +14950,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14963,7 +14967,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14980,7 +14984,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14997,7 +15001,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -15014,7 +15018,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -15031,7 +15035,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -15048,7 +15052,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -15065,7 +15069,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -15099,7 +15103,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -15116,7 +15120,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -15133,7 +15137,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15150,7 +15154,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15167,7 +15171,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15184,7 +15188,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15201,7 +15205,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15215,13 +15219,16 @@
         <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F280">
         <v>598</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -15235,13 +15242,16 @@
         <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F281">
         <v>2480</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15261,7 +15271,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -15281,7 +15291,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -15301,7 +15311,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -15312,16 +15322,16 @@
         <v>285</v>
       </c>
       <c r="D285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F285">
         <v>3524</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -15335,13 +15345,16 @@
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F286">
         <v>2350</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -15355,13 +15368,16 @@
         <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F287">
         <v>2501</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -15378,7 +15394,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -15395,7 +15411,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -15432,7 +15448,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -15449,7 +15465,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -15466,7 +15482,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -15483,7 +15499,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -15500,7 +15516,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -15517,7 +15533,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -15534,7 +15550,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -15551,7 +15567,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -15568,7 +15584,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -15585,7 +15601,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -15602,7 +15618,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -15619,7 +15635,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -15636,7 +15652,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -15653,7 +15669,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -15670,7 +15686,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -15727,7 +15743,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -15744,7 +15760,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -15761,7 +15777,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -15778,7 +15794,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -15795,7 +15811,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -15812,7 +15828,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -15829,7 +15845,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -15840,13 +15856,13 @@
         <v>315</v>
       </c>
       <c r="D315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -15857,13 +15873,13 @@
         <v>316</v>
       </c>
       <c r="D316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -15874,16 +15890,16 @@
         <v>317</v>
       </c>
       <c r="D317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F317">
         <v>3007</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -15894,16 +15910,16 @@
         <v>318</v>
       </c>
       <c r="D318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E318" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F318">
         <v>3362</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -15914,16 +15930,16 @@
         <v>319</v>
       </c>
       <c r="D319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F319">
         <v>3612</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -15940,7 +15956,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -16037,7 +16053,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -16054,7 +16070,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -16071,7 +16087,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -16088,7 +16104,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -16165,7 +16181,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -16182,7 +16198,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -16199,7 +16215,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -16216,7 +16232,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -16233,7 +16249,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -16250,7 +16266,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -16267,7 +16283,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -16284,7 +16300,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -16301,7 +16317,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -16318,7 +16334,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -16335,7 +16351,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -16352,7 +16368,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -16369,7 +16385,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -16386,7 +16402,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -16403,7 +16419,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -16420,7 +16436,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -16437,7 +16453,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -16454,7 +16470,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -16471,7 +16487,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -16488,7 +16504,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -16505,7 +16521,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -16522,7 +16538,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -16539,7 +16555,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -16556,7 +16572,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -16573,7 +16589,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -16590,7 +16606,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16607,7 +16623,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16624,7 +16640,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -16641,7 +16657,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -16658,7 +16674,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -16675,7 +16691,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -16692,7 +16708,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -16709,7 +16725,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -16726,7 +16742,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -16743,7 +16759,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -16760,7 +16776,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -16777,7 +16793,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -16794,7 +16810,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -16811,7 +16827,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -16828,7 +16844,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -16845,7 +16861,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -16862,7 +16878,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -16879,7 +16895,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -16896,7 +16912,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -16913,7 +16929,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -16930,7 +16946,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -16947,7 +16963,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -16964,7 +16980,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -16981,7 +16997,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -16998,7 +17014,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -17015,7 +17031,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -17032,7 +17048,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -17049,7 +17065,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -17066,7 +17082,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -17083,7 +17099,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -17100,7 +17116,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -17117,7 +17133,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -17134,7 +17150,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -17151,7 +17167,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -17168,7 +17184,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -17185,7 +17201,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -17202,7 +17218,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -17219,7 +17235,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -17236,7 +17252,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -17253,7 +17269,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -17270,7 +17286,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -17287,7 +17303,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -17304,7 +17320,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -17321,7 +17337,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -17358,7 +17374,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -17375,7 +17391,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -17392,7 +17408,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -17409,7 +17425,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -17426,7 +17442,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -17443,7 +17459,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -17460,7 +17476,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -17497,7 +17513,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -17534,7 +17550,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -17551,7 +17567,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -17568,7 +17584,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -17585,7 +17601,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -17602,7 +17618,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -17619,7 +17635,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -17636,7 +17652,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17653,7 +17669,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17670,7 +17686,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -17727,7 +17743,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -17744,7 +17760,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -17761,7 +17777,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -17778,7 +17794,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -17795,7 +17811,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -17812,7 +17828,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -17829,7 +17845,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -17846,7 +17862,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -17903,7 +17919,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -17914,16 +17930,16 @@
         <v>434</v>
       </c>
       <c r="D434" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E434" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F434">
         <v>2125</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -17934,16 +17950,16 @@
         <v>435</v>
       </c>
       <c r="D435" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E435" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F435">
         <v>2076</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -17960,7 +17976,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -17977,7 +17993,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -17994,7 +18010,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -18011,7 +18027,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -18028,7 +18044,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -18045,7 +18061,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -18062,7 +18078,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -18079,7 +18095,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -18096,7 +18112,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -18113,7 +18129,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -18130,7 +18146,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -18147,7 +18163,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -18164,7 +18180,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -18181,7 +18197,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -18198,7 +18214,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -18215,7 +18231,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -18232,7 +18248,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -18249,7 +18265,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -18266,7 +18282,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -18283,7 +18299,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -18300,7 +18316,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -18317,7 +18333,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -18334,7 +18350,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -18351,7 +18367,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -18368,7 +18384,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -18385,7 +18401,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -18402,7 +18418,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -18419,7 +18435,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -18436,7 +18452,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -18453,7 +18469,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -18470,7 +18486,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -18487,7 +18503,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -18504,7 +18520,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -18521,7 +18537,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -18538,7 +18554,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -18555,7 +18571,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -18572,7 +18588,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -18589,7 +18605,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -18606,7 +18622,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -18623,7 +18639,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -18640,7 +18656,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -18657,7 +18673,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -18674,7 +18690,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -18691,7 +18707,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -18708,7 +18724,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -18725,7 +18741,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -18742,7 +18758,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -18759,7 +18775,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -18776,7 +18792,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -18793,7 +18809,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -18810,7 +18826,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -18827,7 +18843,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -18844,7 +18860,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -18861,7 +18877,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -18878,7 +18894,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -18895,7 +18911,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -18912,7 +18928,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -18929,7 +18945,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -18946,7 +18962,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -18963,7 +18979,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -18980,7 +18996,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -18997,7 +19013,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -19014,7 +19030,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -19031,7 +19047,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -19048,7 +19064,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -19065,7 +19081,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -19082,7 +19098,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -19099,7 +19115,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -19116,7 +19132,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -19133,7 +19149,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -19150,7 +19166,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -19167,7 +19183,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -19184,7 +19200,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -19201,7 +19217,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -19218,7 +19234,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -19235,7 +19251,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -19252,7 +19268,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -19269,7 +19285,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -19286,7 +19302,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -19303,7 +19319,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -19320,7 +19336,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -19337,7 +19353,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -19354,7 +19370,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -19371,7 +19387,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -19388,7 +19404,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -19405,7 +19421,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -19422,7 +19438,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -19439,7 +19455,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -19456,7 +19472,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -19473,7 +19489,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -19490,7 +19506,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -19507,7 +19523,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -19524,7 +19540,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -19544,7 +19560,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -19558,13 +19574,16 @@
         <v>1</v>
       </c>
       <c r="E530" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F530">
         <v>1760</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G530" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -19583,8 +19602,11 @@
       <c r="F531">
         <v>1426</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G531" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -19595,16 +19617,16 @@
         <v>532</v>
       </c>
       <c r="D532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E532" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F532">
         <v>2197</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -19618,13 +19640,16 @@
         <v>1</v>
       </c>
       <c r="E533" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F533">
         <v>2368</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G533" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -19638,13 +19663,16 @@
         <v>1</v>
       </c>
       <c r="E534" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F534">
         <v>2334</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G534" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -19663,8 +19691,11 @@
       <c r="F535">
         <v>1722</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G535" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -19675,16 +19706,16 @@
         <v>536</v>
       </c>
       <c r="D536" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E536" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F536">
         <v>2807</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -19695,16 +19726,16 @@
         <v>537</v>
       </c>
       <c r="D537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F537">
         <v>2967</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -19715,16 +19746,16 @@
         <v>538</v>
       </c>
       <c r="D538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E538" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F538">
         <v>2103</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -19741,7 +19772,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -19758,7 +19789,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -19775,7 +19806,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -19792,7 +19823,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -19809,7 +19840,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -19826,7 +19857,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -19843,7 +19874,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -19860,7 +19891,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -19877,7 +19908,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -19894,7 +19925,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -19911,7 +19942,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -19928,7 +19959,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -19945,7 +19976,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -19962,7 +19993,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -19979,7 +20010,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -19996,7 +20027,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -20013,7 +20044,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -20030,7 +20061,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -20047,7 +20078,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -20064,7 +20095,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -20081,7 +20112,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -20098,7 +20129,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -20115,7 +20146,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -20132,7 +20163,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -20149,7 +20180,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -20166,7 +20197,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -20183,7 +20214,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -20200,7 +20231,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -20217,7 +20248,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -20234,7 +20265,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -20251,7 +20282,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -20268,7 +20299,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -20285,7 +20316,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -20302,7 +20333,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -20319,7 +20350,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -20336,7 +20367,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -20353,7 +20384,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -20370,7 +20401,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -20387,7 +20418,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -20404,7 +20435,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -20423,8 +20454,11 @@
       <c r="F579">
         <v>2336</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G579" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -20441,7 +20475,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -20458,7 +20492,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -20475,7 +20509,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -20492,7 +20526,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -20509,7 +20543,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -20526,7 +20560,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -20543,7 +20577,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -20560,7 +20594,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -20577,7 +20611,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -20594,7 +20628,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -20611,7 +20645,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -20628,7 +20662,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -20645,7 +20679,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -20662,7 +20696,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -20679,7 +20713,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -20696,7 +20730,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -20713,7 +20747,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -20730,7 +20764,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -20747,7 +20781,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -20764,7 +20798,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -20781,7 +20815,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -20798,7 +20832,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -20815,7 +20849,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -20832,7 +20866,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -20849,7 +20883,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -20866,7 +20900,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -20883,7 +20917,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -20900,7 +20934,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -20917,7 +20951,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -20934,7 +20968,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -20951,7 +20985,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -20968,7 +21002,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -20985,7 +21019,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -21002,7 +21036,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -21019,7 +21053,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -21036,7 +21070,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -21053,7 +21087,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -21070,7 +21104,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -21087,7 +21121,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -21104,7 +21138,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -21121,7 +21155,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -21138,7 +21172,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -21155,7 +21189,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -21172,7 +21206,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -21189,7 +21223,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -21206,7 +21240,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -21223,7 +21257,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -21240,7 +21274,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -21257,7 +21291,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -21274,7 +21308,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -21291,7 +21325,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -21308,7 +21342,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -21325,7 +21359,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -21339,7 +21373,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F633">
         <v>448</v>
@@ -21391,7 +21425,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -21408,7 +21442,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -21425,7 +21459,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -21442,7 +21476,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -21543,7 +21577,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -21560,7 +21594,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -21577,7 +21611,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -21594,7 +21628,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -21611,7 +21645,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -21628,7 +21662,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -21645,7 +21679,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -21662,7 +21696,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -21679,7 +21713,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -21696,7 +21730,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -21713,7 +21747,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -21730,7 +21764,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -21747,7 +21781,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -21764,7 +21798,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -21781,7 +21815,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -21798,7 +21832,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -21815,7 +21849,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -21832,7 +21866,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -21849,7 +21883,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -21866,7 +21900,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -21883,7 +21917,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -21900,7 +21934,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -21917,7 +21951,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -21934,7 +21968,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -21951,7 +21985,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -21968,7 +22002,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -21985,7 +22019,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -22002,7 +22036,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -22019,7 +22053,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -22036,7 +22070,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -22053,7 +22087,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -22070,7 +22104,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -22087,7 +22121,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -22104,7 +22138,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -22121,7 +22155,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -22138,7 +22172,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -22155,7 +22189,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -22172,7 +22206,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -22189,7 +22223,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -22206,7 +22240,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -22223,7 +22257,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -22240,7 +22274,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -22257,7 +22291,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -22274,7 +22308,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -22291,7 +22325,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -22308,7 +22342,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -22325,7 +22359,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -22342,7 +22376,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -22359,7 +22393,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -22376,7 +22410,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -22393,7 +22427,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -22410,7 +22444,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -22427,7 +22461,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -22444,7 +22478,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -22461,7 +22495,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -22478,7 +22512,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -22495,7 +22529,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -22512,7 +22546,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -22529,7 +22563,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -22546,7 +22580,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -22563,7 +22597,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -22580,7 +22614,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -22597,7 +22631,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -22614,7 +22648,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -22631,7 +22665,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -22648,7 +22682,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -22665,7 +22699,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -22682,7 +22716,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -22699,7 +22733,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -22716,7 +22750,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -22733,7 +22767,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -22750,7 +22784,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -22767,7 +22801,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -22784,7 +22818,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -22801,7 +22835,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -22818,7 +22852,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -22835,7 +22869,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -22852,7 +22886,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -22869,7 +22903,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -22886,7 +22920,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -22903,7 +22937,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -22920,7 +22954,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -22937,7 +22971,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -22954,7 +22988,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -22971,7 +23005,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -22988,7 +23022,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -23005,7 +23039,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -23022,7 +23056,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -23039,7 +23073,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -23056,7 +23090,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -23073,7 +23107,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -23090,7 +23124,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -23107,7 +23141,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -23124,7 +23158,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -23141,7 +23175,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -23158,7 +23192,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -23175,7 +23209,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -23192,7 +23226,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -23209,7 +23243,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -23226,7 +23260,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -23243,7 +23277,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -23260,7 +23294,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -23277,7 +23311,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -23294,7 +23328,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -23311,7 +23345,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -23328,7 +23362,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -23345,7 +23379,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -23362,7 +23396,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -23379,7 +23413,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -23396,7 +23430,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -23413,7 +23447,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -23430,7 +23464,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -23447,7 +23481,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -23464,7 +23498,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -23481,7 +23515,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -23498,7 +23532,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -23515,7 +23549,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -23532,7 +23566,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -23549,7 +23583,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -23566,7 +23600,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -23583,7 +23617,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -23600,7 +23634,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -23617,7 +23651,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -23634,7 +23668,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -23651,7 +23685,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -23668,7 +23702,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -23685,7 +23719,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -23702,7 +23736,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -23719,7 +23753,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -23736,7 +23770,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -23753,7 +23787,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -23770,7 +23804,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -23787,7 +23821,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -23804,7 +23838,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -23821,7 +23855,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -23838,7 +23872,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -23855,7 +23889,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -23872,7 +23906,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -23889,7 +23923,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -23906,7 +23940,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -23923,7 +23957,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -23940,7 +23974,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -23957,7 +23991,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -23974,7 +24008,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -23991,7 +24025,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -24008,7 +24042,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -24025,7 +24059,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -24042,7 +24076,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -24059,7 +24093,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -24076,7 +24110,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -24093,7 +24127,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -24110,7 +24144,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -24127,7 +24161,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -24144,7 +24178,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -24161,7 +24195,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -24178,7 +24212,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -24195,7 +24229,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -24212,7 +24246,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -24229,7 +24263,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -24246,7 +24280,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -24263,7 +24297,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -24280,7 +24314,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -24297,7 +24331,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -24314,7 +24348,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -24331,7 +24365,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -24348,7 +24382,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -24365,7 +24399,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -24382,7 +24416,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -24399,7 +24433,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -24416,7 +24450,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -24433,7 +24467,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -24450,7 +24484,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -24467,7 +24501,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -24484,7 +24518,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -24501,7 +24535,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -24518,7 +24552,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -24535,7 +24569,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -24552,7 +24586,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -24569,7 +24603,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -24586,7 +24620,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -24603,7 +24637,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -24620,7 +24654,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -24637,7 +24671,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -24654,7 +24688,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -24671,7 +24705,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -24688,7 +24722,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -24705,7 +24739,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -24722,7 +24756,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -24739,7 +24773,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -24756,7 +24790,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -24773,7 +24807,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -24790,7 +24824,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -24807,7 +24841,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -24824,7 +24858,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -24841,7 +24875,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -24858,7 +24892,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -24875,7 +24909,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -24892,7 +24926,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -24909,7 +24943,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -24926,7 +24960,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -24943,7 +24977,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -24960,7 +24994,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -24977,7 +25011,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -24994,7 +25028,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -25011,7 +25045,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -25028,7 +25062,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -25048,7 +25082,7 @@
       <c r="L849" s="3"/>
       <c r="M849" s="4"/>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -25068,7 +25102,7 @@
       <c r="L850" s="6"/>
       <c r="M850" s="7"/>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -25088,7 +25122,7 @@
       <c r="L851" s="6"/>
       <c r="M851" s="7"/>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -25108,7 +25142,7 @@
       <c r="L852" s="6"/>
       <c r="M852" s="7"/>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -25128,7 +25162,7 @@
       <c r="L853" s="6"/>
       <c r="M853" s="7"/>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -25148,7 +25182,7 @@
       <c r="L854" s="6"/>
       <c r="M854" s="7"/>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -25168,7 +25202,7 @@
       <c r="L855" s="6"/>
       <c r="M855" s="7"/>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -25188,7 +25222,7 @@
       <c r="L856" s="6"/>
       <c r="M856" s="7"/>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -25208,7 +25242,7 @@
       <c r="L857" s="6"/>
       <c r="M857" s="7"/>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -25228,7 +25262,7 @@
       <c r="L858" s="6"/>
       <c r="M858" s="7"/>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -25248,7 +25282,7 @@
       <c r="L859" s="6"/>
       <c r="M859" s="7"/>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -25268,7 +25302,7 @@
       <c r="L860" s="6"/>
       <c r="M860" s="7"/>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -25288,7 +25322,7 @@
       <c r="L861" s="6"/>
       <c r="M861" s="7"/>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -25308,7 +25342,7 @@
       <c r="L862" s="6"/>
       <c r="M862" s="7"/>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -25328,7 +25362,7 @@
       <c r="L863" s="6"/>
       <c r="M863" s="7"/>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -25348,7 +25382,7 @@
       <c r="L864" s="6"/>
       <c r="M864" s="7"/>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -25368,7 +25402,7 @@
       <c r="L865" s="6"/>
       <c r="M865" s="7"/>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -25388,7 +25422,7 @@
       <c r="L866" s="9"/>
       <c r="M866" s="10"/>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -25405,7 +25439,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -25422,7 +25456,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -25439,7 +25473,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -25456,7 +25490,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -25473,7 +25507,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -25490,7 +25524,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -25508,7 +25542,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M873" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M873" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ordinal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId2"/>
 </worksheet>
